--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C389BB4-A078-4AA3-917F-0BE00B1FF5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8023C5-1065-45B9-8663-56A458056B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{97B49F44-EFC3-4106-8AD9-48CD17FA86FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1246,89 +1246,6 @@
   </si>
   <si>
     <t>reg-email-notification</t>
-  </si>
-  <si>
-    <t>enregistrement ModÃ¨le de remerciement - Partie 1</t>
-  </si>
-  <si>
-    <t>AccusÃ© de rÃ©ception gÃ©nÃ©rÃ© aprÃ¨s lenregistrement - Partie 1</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table; .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}_x000D_
-.applicantPhoto{position:absolute;top:-35px;left:500px;}_x000D_
-.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}_x000D_
-.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}_x000D_
-.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}_x000D_
-.parentPhoto{position:absolute;top:-35px;left:630px;}_x000D_
-.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}_x000D_
-.consent-text{margin-left: 7px;margin-bottom: 4px;}_x000D_
-input[type="radio"] {display: none;}_x000D_
-input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}_x000D_
-input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}_x000D_
-*;*:before;*:after { box-sizing: border-box;}_x000D_
-.consent-block label { display: inline-flex; align-items: center;}_x000D_
-&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}_x000D_
-if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}_x000D_
-document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart"; function(event) {event.preventDefault();}); body.addEventListener("selectstart"; function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part1</t>
-  </si>
-  <si>
-    <t>enregistrement ModÃ¨le de remerciement - Partie 2</t>
-  </si>
-  <si>
-    <t>AccusÃ© de rÃ©ception gÃ©nÃ©rÃ© aprÃ¨s lenregistrement - Partie 2</t>
-  </si>
-  <si>
-    <t>&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;_x000D_
-&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="85" height="85"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td ${IsUINUpdate}&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;_x000D_
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;br/&gt;&lt;p ${DocumentsEnabled} class="head"&gt;&lt;b&gt;${DocumentsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${DocumentsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDocuments"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${DocumentsEnabled}/&gt;_x000D_
-&lt;table ${DocumentsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DocumentsPrimLabel} / ${DocumentsSecLabel}&lt;/p&gt;&lt;br/&gt;${Documents}&lt;br/&gt;${DocumentsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;br/&gt;&lt;p ${BiometricsEnabled} class="head"&gt;&lt;b&gt;${BiometricsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${BiometricsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyBiometrics"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${BiometricsEnabled}/&gt;_x000D_
-&lt;table ${BiometricsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${BiometricsPrimLabel} / ${BiometricsSecLabel}&lt;/p&gt;&lt;br/&gt;${Biometrics}&lt;br/&gt;${BiometricsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part2</t>
-  </si>
-  <si>
-    <t>enregistrement ModÃ¨le de remerciement - Partie 3</t>
-  </si>
-  <si>
-    <t>AccusÃ© de rÃ©ception gÃ©nÃ©rÃ© aprÃ¨s lenregistrement - Partie 3</t>
-  </si>
-  <si>
-    <t>&lt;table ${IrisEnabled} ${WithException} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisWithException}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;_x000D_
-&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;table ${IrisEnabled} class="tableWithoutException" ${WithoutException}&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;p class="headings"&gt;${LeftEyePrimLabel} / ${LeftEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;p class="headings"&gt;${RightEyePrimLabel} / ${RightEyeSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${LeftEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightEye}&gt;&lt;div class="biometrics"&gt;&lt;h5 class="${irisStyle}"&gt;${RightEye}&lt;/h5&gt;&lt;img src="${EyeImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftEyeCaptured}&gt;&lt;img src="${CapturedLeftEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightEyeCaptured}&gt;&lt;img src="${CapturedRightEye}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;table ${FingerprintsCaptured} class="biometricsTable"&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p class="headings"&gt;${LeftPalmPrimLabel} / ${LeftPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p class="headings"&gt;${RightPalmPrimLabel} / ${RightPalmSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p class="headings"&gt;${ThumbsPrimLabel} / ${ThumbsSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td ${parentLeftSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftLittle"&gt;${leftLittle}&lt;/h5&gt;&lt;h5 ${isChild} class="leftRing"&gt;${leftRing}&lt;/h5&gt;&lt;h5 ${isChild} class="leftMiddle"&gt;${leftMiddle}&lt;/h5&gt;&lt;h5 class="${childLeft}"&gt;${leftIndex}&lt;/h5&gt;&lt;img src="${LeftPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentRightSlap}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="rightIndex"&gt;${rightIndex}&lt;/h5&gt;&lt;h5 ${isChild} class="rightMiddle"&gt;${rightMiddle}&lt;/h5&gt;&lt;h5 ${isChild} class="rightRing"&gt;${rightRing}&lt;/h5&gt;&lt;h5 class="${childRight}"&gt;${rightLittle}&lt;/h5&gt;&lt;img src="${RightPalmImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;td ${parentThumbs}&gt;&lt;div class="biometrics"&gt;&lt;h5 ${isChild} class="leftThumb"&gt;${leftThumb}&lt;/h5&gt;&lt;h5 class="${childThumbs}"&gt;${rightThumb}&lt;/h5&gt;&lt;img src="${ThumbsImageSource}" border="0" width="85" height="80"/&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part3</t>
-  </si>
-  <si>
-    <t>enregistrement ModÃ¨le de remerciement - Partie 4</t>
-  </si>
-  <si>
-    <t>AccusÃ© de rÃ©ception gÃ©nÃ©rÃ© aprÃ¨s lenregistrement - Partie 4</t>
-  </si>
-  <si>
-    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;div class="consent-block" id="radioId"&gt;&lt;div class="consent-text"&gt;${ConsentData}&lt;/div&gt;_x000D_
-&lt;input type="radio" name="consent" id="consent-yes" value="yes" ${SelectedYes} onchange="changeColour(this)"&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;_x000D_
-&lt;input type="radio" name="consent" id="consent-no" value="no" ${SelectedNo} onchange="changeColour(this)"&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;_x000D_
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
-&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;_x000D_
-&lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;_x000D_
-&lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;_x000D_
-&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part4</t>
   </si>
   <si>
     <t>Monsieur/Madame;_x000D_
@@ -2408,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229855EC-EB4F-4B19-9CD6-EAB90768723A}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3859,159 +3776,159 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="H36" s="7">
+        <v>10001</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>1143</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="H37" s="7">
+        <v>10001</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>1144</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="H36" s="7">
-        <v>10005</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="H38" s="3">
+        <v>10001</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>1145</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K36" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>1139</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="7">
-        <v>10005</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>1140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" s="7">
-        <v>10005</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>1141</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="7">
-        <v>10005</v>
+      <c r="H39" s="3">
+        <v>10002</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="K39" s="5" t="b">
         <v>1</v>
@@ -4025,16 +3942,16 @@
     </row>
     <row r="40" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>14</v>
@@ -4042,17 +3959,17 @@
       <c r="F40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H40" s="7">
-        <v>10001</v>
+      <c r="G40" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H40" s="3">
+        <v>10002</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K40" s="5" t="b">
         <v>1</v>
@@ -4066,7 +3983,7 @@
     </row>
     <row r="41" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -4083,17 +4000,17 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="H41" s="7">
-        <v>10001</v>
+      <c r="G41" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10002</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K41" s="5" t="b">
         <v>1</v>
@@ -4107,16 +4024,16 @@
     </row>
     <row r="42" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>14</v>
@@ -4125,16 +4042,16 @@
         <v>15</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H42" s="3">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K42" s="5" t="b">
         <v>1</v>
@@ -4148,16 +4065,16 @@
     </row>
     <row r="43" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>14</v>
@@ -4166,16 +4083,16 @@
         <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H43" s="3">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K43" s="5" t="b">
         <v>1</v>
@@ -4189,7 +4106,7 @@
     </row>
     <row r="44" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
@@ -4207,16 +4124,16 @@
         <v>15</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H44" s="3">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K44" s="5" t="b">
         <v>1</v>
@@ -4230,34 +4147,32 @@
     </row>
     <row r="45" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="8" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H45" s="3">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K45" s="5" t="b">
         <v>1</v>
@@ -4271,25 +4186,25 @@
     </row>
     <row r="46" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H46" s="3">
         <v>10004</v>
@@ -4298,7 +4213,7 @@
         <v>260</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K46" s="5" t="b">
         <v>1</v>
@@ -4312,25 +4227,25 @@
     </row>
     <row r="47" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>29</v>
+        <v>347</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H47" s="3">
         <v>10004</v>
@@ -4339,7 +4254,7 @@
         <v>260</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K47" s="5" t="b">
         <v>1</v>
@@ -4353,34 +4268,32 @@
     </row>
     <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="8" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H48" s="3">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K48" s="5" t="b">
         <v>1</v>
@@ -4394,32 +4307,34 @@
     </row>
     <row r="49" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G49" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H49" s="3">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="K49" s="5" t="b">
         <v>1</v>
@@ -4433,34 +4348,34 @@
     </row>
     <row r="50" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H50" s="3">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="K50" s="5" t="b">
         <v>1</v>
@@ -4474,34 +4389,34 @@
     </row>
     <row r="51" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H51" s="3">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="K51" s="5" t="b">
         <v>1</v>
@@ -4515,32 +4430,34 @@
     </row>
     <row r="52" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H52" s="3">
-        <v>10001</v>
+        <v>10005</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="K52" s="5" t="b">
         <v>1</v>
@@ -4554,16 +4471,16 @@
     </row>
     <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>14</v>
@@ -4572,16 +4489,16 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H53" s="3">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>369</v>
+        <v>48</v>
       </c>
       <c r="K53" s="5" t="b">
         <v>1</v>
@@ -4595,16 +4512,16 @@
     </row>
     <row r="54" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>14</v>
@@ -4613,16 +4530,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H54" s="3">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="K54" s="5" t="b">
         <v>1</v>
@@ -4636,16 +4553,16 @@
     </row>
     <row r="55" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>14</v>
@@ -4654,16 +4571,16 @@
         <v>15</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H55" s="3">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="K55" s="5" t="b">
         <v>1</v>
@@ -4677,99 +4594,99 @@
     </row>
     <row r="56" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H56" s="3">
+        <v>10003</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>1163</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10006</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K57" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>1164</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="H56" s="3">
-        <v>10005</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K56" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <v>1159</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10001</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K57" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
-        <v>1160</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
       </c>
@@ -4777,16 +4694,16 @@
         <v>15</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H58" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="K58" s="5" t="b">
         <v>1</v>
@@ -4800,16 +4717,16 @@
     </row>
     <row r="59" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -4818,16 +4735,16 @@
         <v>15</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H59" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K59" s="5" t="b">
         <v>1</v>
@@ -4841,16 +4758,16 @@
     </row>
     <row r="60" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -4859,16 +4776,16 @@
         <v>15</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H60" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="K60" s="5" t="b">
         <v>1</v>
@@ -4882,16 +4799,16 @@
     </row>
     <row r="61" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -4900,7 +4817,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H61" s="3">
         <v>10006</v>
@@ -4909,7 +4826,7 @@
         <v>152</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K61" s="5" t="b">
         <v>1</v>
@@ -4921,18 +4838,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>14</v>
@@ -4941,7 +4858,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H62" s="3">
         <v>10006</v>
@@ -4950,7 +4867,7 @@
         <v>152</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K62" s="5" t="b">
         <v>1</v>
@@ -4962,18 +4879,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>14</v>
@@ -4982,7 +4899,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H63" s="3">
         <v>10006</v>
@@ -4991,7 +4908,7 @@
         <v>152</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K63" s="5" t="b">
         <v>1</v>
@@ -5005,16 +4922,16 @@
     </row>
     <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>14</v>
@@ -5023,7 +4940,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H64" s="3">
         <v>10006</v>
@@ -5032,7 +4949,7 @@
         <v>152</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K64" s="5" t="b">
         <v>1</v>
@@ -5046,16 +4963,16 @@
     </row>
     <row r="65" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>14</v>
@@ -5064,7 +4981,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="H65" s="3">
         <v>10006</v>
@@ -5073,7 +4990,7 @@
         <v>152</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K65" s="5" t="b">
         <v>1</v>
@@ -5087,16 +5004,16 @@
     </row>
     <row r="66" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>14</v>
@@ -5105,7 +5022,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H66" s="3">
         <v>10006</v>
@@ -5114,7 +5031,7 @@
         <v>152</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K66" s="5" t="b">
         <v>1</v>
@@ -5128,16 +5045,16 @@
     </row>
     <row r="67" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>14</v>
@@ -5146,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H67" s="3">
         <v>10006</v>
@@ -5155,7 +5072,7 @@
         <v>152</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K67" s="5" t="b">
         <v>1</v>
@@ -5167,18 +5084,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>14</v>
@@ -5187,7 +5104,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H68" s="3">
         <v>10006</v>
@@ -5196,7 +5113,7 @@
         <v>152</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K68" s="5" t="b">
         <v>1</v>
@@ -5208,18 +5125,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
@@ -5228,7 +5145,7 @@
         <v>15</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H69" s="3">
         <v>10006</v>
@@ -5237,7 +5154,7 @@
         <v>152</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K69" s="5" t="b">
         <v>1</v>
@@ -5249,18 +5166,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
@@ -5269,7 +5186,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H70" s="3">
         <v>10006</v>
@@ -5278,7 +5195,7 @@
         <v>152</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K70" s="5" t="b">
         <v>1</v>
@@ -5290,18 +5207,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>14</v>
@@ -5310,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="H71" s="3">
         <v>10006</v>
@@ -5319,7 +5236,7 @@
         <v>152</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K71" s="5" t="b">
         <v>1</v>
@@ -5331,18 +5248,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>14</v>
@@ -5351,7 +5268,7 @@
         <v>15</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H72" s="3">
         <v>10006</v>
@@ -5360,7 +5277,7 @@
         <v>152</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K72" s="5" t="b">
         <v>1</v>
@@ -5372,18 +5289,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
@@ -5392,7 +5309,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H73" s="3">
         <v>10006</v>
@@ -5401,7 +5318,7 @@
         <v>152</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K73" s="5" t="b">
         <v>1</v>
@@ -5413,18 +5330,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>14</v>
@@ -5433,7 +5350,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H74" s="3">
         <v>10006</v>
@@ -5442,7 +5359,7 @@
         <v>152</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K74" s="5" t="b">
         <v>1</v>
@@ -5454,18 +5371,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>14</v>
@@ -5473,8 +5390,8 @@
       <c r="F75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>407</v>
+      <c r="G75" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="H75" s="3">
         <v>10006</v>
@@ -5483,7 +5400,7 @@
         <v>152</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K75" s="5" t="b">
         <v>1</v>
@@ -5495,18 +5412,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>14</v>
@@ -5514,8 +5431,8 @@
       <c r="F76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>412</v>
+      <c r="G76" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="H76" s="3">
         <v>10006</v>
@@ -5524,7 +5441,7 @@
         <v>152</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K76" s="5" t="b">
         <v>1</v>
@@ -5536,18 +5453,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>14</v>
@@ -5556,7 +5473,7 @@
         <v>15</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H77" s="3">
         <v>10006</v>
@@ -5565,7 +5482,7 @@
         <v>152</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K77" s="5" t="b">
         <v>1</v>
@@ -5577,18 +5494,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>14</v>
@@ -5597,7 +5514,7 @@
         <v>15</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H78" s="3">
         <v>10006</v>
@@ -5606,7 +5523,7 @@
         <v>152</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K78" s="5" t="b">
         <v>1</v>
@@ -5618,18 +5535,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
@@ -5637,8 +5554,8 @@
       <c r="F79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>417</v>
+      <c r="G79" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="H79" s="3">
         <v>10006</v>
@@ -5647,7 +5564,7 @@
         <v>152</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K79" s="5" t="b">
         <v>1</v>
@@ -5661,16 +5578,16 @@
     </row>
     <row r="80" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>14</v>
@@ -5678,8 +5595,8 @@
       <c r="F80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>419</v>
+      <c r="G80" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="H80" s="3">
         <v>10006</v>
@@ -5688,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K80" s="5" t="b">
         <v>1</v>
@@ -5702,16 +5619,16 @@
     </row>
     <row r="81" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>14</v>
@@ -5720,7 +5637,7 @@
         <v>15</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H81" s="3">
         <v>10006</v>
@@ -5729,7 +5646,7 @@
         <v>152</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K81" s="5" t="b">
         <v>1</v>
@@ -5741,18 +5658,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>14</v>
@@ -5761,7 +5678,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H82" s="3">
         <v>10006</v>
@@ -5770,7 +5687,7 @@
         <v>152</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K82" s="5" t="b">
         <v>1</v>
@@ -5782,18 +5699,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>14</v>
@@ -5802,7 +5719,7 @@
         <v>15</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H83" s="3">
         <v>10006</v>
@@ -5811,7 +5728,7 @@
         <v>152</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K83" s="5" t="b">
         <v>1</v>
@@ -5825,16 +5742,16 @@
     </row>
     <row r="84" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>14</v>
@@ -5843,7 +5760,7 @@
         <v>15</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H84" s="3">
         <v>10006</v>
@@ -5852,7 +5769,7 @@
         <v>152</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K84" s="5" t="b">
         <v>1</v>
@@ -5864,18 +5781,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>14</v>
@@ -5884,7 +5801,7 @@
         <v>15</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H85" s="3">
         <v>10006</v>
@@ -5893,7 +5810,7 @@
         <v>152</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K85" s="5" t="b">
         <v>1</v>
@@ -5905,18 +5822,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>14</v>
@@ -5925,7 +5842,7 @@
         <v>15</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H86" s="3">
         <v>10006</v>
@@ -5934,7 +5851,7 @@
         <v>152</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K86" s="5" t="b">
         <v>1</v>
@@ -5946,18 +5863,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>14</v>
@@ -5966,7 +5883,7 @@
         <v>15</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H87" s="3">
         <v>10006</v>
@@ -5975,7 +5892,7 @@
         <v>152</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K87" s="5" t="b">
         <v>1</v>
@@ -5987,18 +5904,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>14</v>
@@ -6007,7 +5924,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="H88" s="3">
         <v>10006</v>
@@ -6016,7 +5933,7 @@
         <v>152</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K88" s="5" t="b">
         <v>1</v>
@@ -6028,18 +5945,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>14</v>
@@ -6048,7 +5965,7 @@
         <v>15</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H89" s="3">
         <v>10006</v>
@@ -6057,7 +5974,7 @@
         <v>152</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K89" s="5" t="b">
         <v>1</v>
@@ -6069,18 +5986,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="38.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>14</v>
@@ -6089,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H90" s="3">
         <v>10006</v>
@@ -6098,7 +6015,7 @@
         <v>152</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K90" s="5" t="b">
         <v>1</v>
@@ -6110,18 +6027,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>14</v>
@@ -6130,7 +6047,7 @@
         <v>15</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H91" s="3">
         <v>10006</v>
@@ -6139,7 +6056,7 @@
         <v>152</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K91" s="5" t="b">
         <v>1</v>
@@ -6151,18 +6068,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>14</v>
@@ -6171,7 +6088,7 @@
         <v>15</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H92" s="3">
         <v>10006</v>
@@ -6180,7 +6097,7 @@
         <v>152</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K92" s="5" t="b">
         <v>1</v>
@@ -6192,18 +6109,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>14</v>
@@ -6212,7 +6129,7 @@
         <v>15</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H93" s="3">
         <v>10006</v>
@@ -6221,7 +6138,7 @@
         <v>152</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K93" s="5" t="b">
         <v>1</v>
@@ -6233,18 +6150,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="38.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>14</v>
@@ -6253,7 +6170,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H94" s="3">
         <v>10006</v>
@@ -6262,7 +6179,7 @@
         <v>152</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K94" s="5" t="b">
         <v>1</v>
@@ -6274,18 +6191,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="44.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>14</v>
@@ -6294,7 +6211,7 @@
         <v>15</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H95" s="3">
         <v>10006</v>
@@ -6303,7 +6220,7 @@
         <v>152</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K95" s="5" t="b">
         <v>1</v>
@@ -6315,18 +6232,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>14</v>
@@ -6335,7 +6252,7 @@
         <v>15</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H96" s="3">
         <v>10006</v>
@@ -6344,7 +6261,7 @@
         <v>152</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K96" s="5" t="b">
         <v>1</v>
@@ -6356,18 +6273,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
@@ -6376,7 +6293,7 @@
         <v>15</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H97" s="3">
         <v>10006</v>
@@ -6385,7 +6302,7 @@
         <v>152</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K97" s="5" t="b">
         <v>1</v>
@@ -6397,18 +6314,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>14</v>
@@ -6417,7 +6334,7 @@
         <v>15</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H98" s="3">
         <v>10006</v>
@@ -6426,7 +6343,7 @@
         <v>152</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K98" s="5" t="b">
         <v>1</v>
@@ -6438,18 +6355,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="44.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
@@ -6458,7 +6375,7 @@
         <v>15</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H99" s="3">
         <v>10006</v>
@@ -6467,7 +6384,7 @@
         <v>152</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K99" s="5" t="b">
         <v>1</v>
@@ -6479,18 +6396,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="39.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>14</v>
@@ -6499,7 +6416,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H100" s="3">
         <v>10006</v>
@@ -6508,7 +6425,7 @@
         <v>152</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K100" s="5" t="b">
         <v>1</v>
@@ -6520,18 +6437,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>14</v>
@@ -6540,7 +6457,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="H101" s="3">
         <v>10006</v>
@@ -6549,7 +6466,7 @@
         <v>152</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K101" s="5" t="b">
         <v>1</v>
@@ -6561,18 +6478,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>14</v>
@@ -6581,7 +6498,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H102" s="3">
         <v>10006</v>
@@ -6590,7 +6507,7 @@
         <v>152</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K102" s="5" t="b">
         <v>1</v>
@@ -6602,18 +6519,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>14</v>
@@ -6622,7 +6539,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H103" s="3">
         <v>10006</v>
@@ -6631,7 +6548,7 @@
         <v>152</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K103" s="5" t="b">
         <v>1</v>
@@ -6643,18 +6560,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>14</v>
@@ -6663,7 +6580,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H104" s="3">
         <v>10006</v>
@@ -6672,7 +6589,7 @@
         <v>152</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K104" s="5" t="b">
         <v>1</v>
@@ -6684,18 +6601,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>463</v>
+        <v>92</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>463</v>
+        <v>92</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>14</v>
@@ -6704,16 +6621,16 @@
         <v>15</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>460</v>
+        <v>229</v>
       </c>
       <c r="H105" s="3">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="K105" s="5" t="b">
         <v>1</v>
@@ -6725,18 +6642,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>14</v>
@@ -6745,16 +6662,16 @@
         <v>15</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="H106" s="3">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="K106" s="5" t="b">
         <v>1</v>
@@ -6766,18 +6683,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>466</v>
+        <v>96</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>466</v>
+        <v>96</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>14</v>
@@ -6786,16 +6703,16 @@
         <v>15</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>467</v>
+        <v>230</v>
       </c>
       <c r="H107" s="3">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="K107" s="5" t="b">
         <v>1</v>
@@ -6807,18 +6724,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>468</v>
+        <v>98</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>468</v>
+        <v>98</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>14</v>
@@ -6827,16 +6744,16 @@
         <v>15</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>465</v>
+        <v>230</v>
       </c>
       <c r="H108" s="3">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="K108" s="5" t="b">
         <v>1</v>
@@ -6848,18 +6765,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>14</v>
@@ -6868,7 +6785,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H109" s="3">
         <v>10003</v>
@@ -6877,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K109" s="5" t="b">
         <v>1</v>
@@ -6889,18 +6806,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>14</v>
@@ -6909,7 +6826,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H110" s="3">
         <v>10003</v>
@@ -6918,7 +6835,7 @@
         <v>74</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K110" s="5" t="b">
         <v>1</v>
@@ -6930,18 +6847,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>14</v>
@@ -6959,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K111" s="5" t="b">
         <v>1</v>
@@ -6971,18 +6888,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>14</v>
@@ -7000,7 +6917,7 @@
         <v>74</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K112" s="5" t="b">
         <v>1</v>
@@ -7012,18 +6929,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>14</v>
@@ -7032,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H113" s="3">
         <v>10003</v>
@@ -7041,7 +6958,7 @@
         <v>74</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K113" s="5" t="b">
         <v>1</v>
@@ -7053,18 +6970,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>14</v>
@@ -7073,7 +6990,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H114" s="3">
         <v>10003</v>
@@ -7082,7 +6999,7 @@
         <v>74</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K114" s="5" t="b">
         <v>1</v>
@@ -7094,18 +7011,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>14</v>
@@ -7114,7 +7031,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H115" s="3">
         <v>10003</v>
@@ -7123,7 +7040,7 @@
         <v>74</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K115" s="5" t="b">
         <v>1</v>
@@ -7135,18 +7052,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>14</v>
@@ -7155,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H116" s="3">
         <v>10003</v>
@@ -7164,7 +7081,7 @@
         <v>74</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K116" s="5" t="b">
         <v>1</v>
@@ -7176,18 +7093,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>14</v>
@@ -7196,7 +7113,7 @@
         <v>15</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H117" s="3">
         <v>10003</v>
@@ -7205,7 +7122,7 @@
         <v>74</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K117" s="5" t="b">
         <v>1</v>
@@ -7217,18 +7134,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>14</v>
@@ -7237,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H118" s="3">
         <v>10003</v>
@@ -7246,7 +7163,7 @@
         <v>74</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K118" s="5" t="b">
         <v>1</v>
@@ -7258,18 +7175,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>14</v>
@@ -7278,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H119" s="3">
         <v>10003</v>
@@ -7287,7 +7204,7 @@
         <v>74</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K119" s="5" t="b">
         <v>1</v>
@@ -7299,18 +7216,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>14</v>
@@ -7319,7 +7236,7 @@
         <v>15</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H120" s="3">
         <v>10003</v>
@@ -7328,7 +7245,7 @@
         <v>74</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K120" s="5" t="b">
         <v>1</v>
@@ -7340,18 +7257,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>14</v>
@@ -7360,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H121" s="3">
         <v>10003</v>
@@ -7369,7 +7286,7 @@
         <v>74</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K121" s="5" t="b">
         <v>1</v>
@@ -7381,18 +7298,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>14</v>
@@ -7401,7 +7318,7 @@
         <v>15</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H122" s="3">
         <v>10003</v>
@@ -7410,7 +7327,7 @@
         <v>74</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K122" s="5" t="b">
         <v>1</v>
@@ -7422,18 +7339,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>14</v>
@@ -7442,7 +7359,7 @@
         <v>15</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H123" s="3">
         <v>10003</v>
@@ -7451,7 +7368,7 @@
         <v>74</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K123" s="5" t="b">
         <v>1</v>
@@ -7463,18 +7380,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>14</v>
@@ -7483,7 +7400,7 @@
         <v>15</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H124" s="3">
         <v>10003</v>
@@ -7492,7 +7409,7 @@
         <v>74</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K124" s="5" t="b">
         <v>1</v>
@@ -7504,18 +7421,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="47.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>14</v>
@@ -7524,7 +7441,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H125" s="3">
         <v>10003</v>
@@ -7533,7 +7450,7 @@
         <v>74</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K125" s="5" t="b">
         <v>1</v>
@@ -7545,18 +7462,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="91.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>14</v>
@@ -7565,16 +7482,16 @@
         <v>15</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H126" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="K126" s="5" t="b">
         <v>1</v>
@@ -7586,18 +7503,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>14</v>
@@ -7606,16 +7523,16 @@
         <v>15</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H127" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="K127" s="5" t="b">
         <v>1</v>
@@ -7627,18 +7544,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>14</v>
@@ -7647,16 +7564,16 @@
         <v>15</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H128" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="K128" s="5" t="b">
         <v>1</v>
@@ -7670,16 +7587,16 @@
     </row>
     <row r="129" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>14</v>
@@ -7688,16 +7605,16 @@
         <v>15</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H129" s="3">
-        <v>10003</v>
+        <v>10006</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="K129" s="5" t="b">
         <v>1</v>
@@ -7709,18 +7626,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="91.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>14</v>
@@ -7729,7 +7646,7 @@
         <v>15</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="H130" s="3">
         <v>10006</v>
@@ -7738,7 +7655,7 @@
         <v>152</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K130" s="5" t="b">
         <v>1</v>
@@ -7750,18 +7667,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>14</v>
@@ -7770,7 +7687,7 @@
         <v>15</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H131" s="3">
         <v>10006</v>
@@ -7779,7 +7696,7 @@
         <v>152</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K131" s="5" t="b">
         <v>1</v>
@@ -7793,16 +7710,16 @@
     </row>
     <row r="132" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>14</v>
@@ -7811,7 +7728,7 @@
         <v>15</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H132" s="3">
         <v>10006</v>
@@ -7820,7 +7737,7 @@
         <v>152</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K132" s="5" t="b">
         <v>1</v>
@@ -7832,18 +7749,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="45.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>14</v>
@@ -7852,7 +7769,7 @@
         <v>15</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H133" s="3">
         <v>10006</v>
@@ -7861,7 +7778,7 @@
         <v>152</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K133" s="5" t="b">
         <v>1</v>
@@ -7873,18 +7790,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>14</v>
@@ -7893,7 +7810,7 @@
         <v>15</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H134" s="3">
         <v>10006</v>
@@ -7902,7 +7819,7 @@
         <v>152</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K134" s="5" t="b">
         <v>1</v>
@@ -7916,16 +7833,16 @@
     </row>
     <row r="135" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>14</v>
@@ -7934,7 +7851,7 @@
         <v>15</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H135" s="3">
         <v>10006</v>
@@ -7943,7 +7860,7 @@
         <v>152</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K135" s="5" t="b">
         <v>1</v>
@@ -7957,16 +7874,16 @@
     </row>
     <row r="136" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>14</v>
@@ -7975,7 +7892,7 @@
         <v>15</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H136" s="3">
         <v>10006</v>
@@ -7984,7 +7901,7 @@
         <v>152</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K136" s="5" t="b">
         <v>1</v>
@@ -7998,16 +7915,16 @@
     </row>
     <row r="137" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>14</v>
@@ -8016,7 +7933,7 @@
         <v>15</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H137" s="3">
         <v>10006</v>
@@ -8025,7 +7942,7 @@
         <v>152</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K137" s="5" t="b">
         <v>1</v>
@@ -8039,16 +7956,16 @@
     </row>
     <row r="138" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>14</v>
@@ -8057,16 +7974,16 @@
         <v>15</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
       <c r="H138" s="3">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="K138" s="5" t="b">
         <v>1</v>
@@ -8080,16 +7997,16 @@
     </row>
     <row r="139" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>14</v>
@@ -8098,16 +8015,16 @@
         <v>15</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>256</v>
+        <v>454</v>
       </c>
       <c r="H139" s="3">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="K139" s="5" t="b">
         <v>1</v>
@@ -8121,16 +8038,16 @@
     </row>
     <row r="140" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>1242</v>
+        <v>1260</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>14</v>
@@ -8139,16 +8056,16 @@
         <v>15</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="H140" s="3">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="K140" s="5" t="b">
         <v>1</v>
@@ -8162,16 +8079,16 @@
     </row>
     <row r="141" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <v>1243</v>
+        <v>1269</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>14</v>
@@ -8180,16 +8097,16 @@
         <v>15</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H141" s="3">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="K141" s="5" t="b">
         <v>1</v>
@@ -8203,16 +8120,16 @@
     </row>
     <row r="142" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <v>1250</v>
+        <v>1272</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>14</v>
@@ -8221,16 +8138,16 @@
         <v>15</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>469</v>
+        <v>241</v>
       </c>
       <c r="H142" s="3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="K142" s="5" t="b">
         <v>1</v>
@@ -8244,16 +8161,16 @@
     </row>
     <row r="143" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>14</v>
@@ -8261,17 +8178,15 @@
       <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="8" t="s">
-        <v>470</v>
-      </c>
+      <c r="G143" s="8"/>
       <c r="H143" s="3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="K143" s="5" t="b">
         <v>1</v>
@@ -8285,16 +8200,16 @@
     </row>
     <row r="144" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>14</v>
@@ -8303,16 +8218,16 @@
         <v>15</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="H144" s="3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="K144" s="5" t="b">
         <v>1</v>
@@ -8326,16 +8241,16 @@
     </row>
     <row r="145" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>14</v>
@@ -8344,16 +8259,16 @@
         <v>15</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H145" s="3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="K145" s="5" t="b">
         <v>1</v>
@@ -8367,16 +8282,16 @@
     </row>
     <row r="146" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>14</v>
@@ -8385,7 +8300,7 @@
         <v>15</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H146" s="3">
         <v>10003</v>
@@ -8394,7 +8309,7 @@
         <v>74</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K146" s="5" t="b">
         <v>1</v>
@@ -8408,16 +8323,16 @@
     </row>
     <row r="147" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>14</v>
@@ -8425,7 +8340,9 @@
       <c r="F147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G147" s="8"/>
+      <c r="G147" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="H147" s="3">
         <v>10003</v>
       </c>
@@ -8433,7 +8350,7 @@
         <v>74</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K147" s="5" t="b">
         <v>1</v>
@@ -8447,16 +8364,16 @@
     </row>
     <row r="148" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>14</v>
@@ -8465,7 +8382,7 @@
         <v>15</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H148" s="3">
         <v>10003</v>
@@ -8474,7 +8391,7 @@
         <v>74</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K148" s="5" t="b">
         <v>1</v>
@@ -8488,16 +8405,16 @@
     </row>
     <row r="149" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>14</v>
@@ -8506,7 +8423,7 @@
         <v>15</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H149" s="3">
         <v>10003</v>
@@ -8515,7 +8432,7 @@
         <v>74</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K149" s="5" t="b">
         <v>1</v>
@@ -8527,18 +8444,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>14</v>
@@ -8547,7 +8464,7 @@
         <v>15</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H150" s="3">
         <v>10003</v>
@@ -8556,7 +8473,7 @@
         <v>74</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K150" s="5" t="b">
         <v>1</v>
@@ -8570,16 +8487,16 @@
     </row>
     <row r="151" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>14</v>
@@ -8588,16 +8505,16 @@
         <v>15</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="H151" s="3">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K151" s="5" t="b">
         <v>1</v>
@@ -8610,17 +8527,17 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="3">
-        <v>1278</v>
+      <c r="A152" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>14</v>
@@ -8629,16 +8546,16 @@
         <v>15</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H152" s="3">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="K152" s="5" t="b">
         <v>1</v>
@@ -8651,17 +8568,17 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="3">
-        <v>1279</v>
+      <c r="A153" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>14</v>
@@ -8670,16 +8587,16 @@
         <v>15</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="H153" s="3">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="K153" s="5" t="b">
         <v>1</v>
@@ -8688,170 +8605,6 @@
         <v>18</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="3">
-        <v>1280</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H154" s="3">
-        <v>10003</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K154" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M154" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3">
-        <v>1281</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H155" s="3">
-        <v>10001</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K155" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M155" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H156" s="3">
-        <v>10001</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K156" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M156" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H157" s="3">
-        <v>10004</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K157" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M157" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8023C5-1065-45B9-8663-56A458056B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E00DE-273D-4257-B62B-33F6614D872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{97B49F44-EFC3-4106-8AD9-48CD17FA86FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -709,336 +709,697 @@
   </si>
   <si>
     <t>Rendez-vous annulé : Pré-inscription $PRID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu votre demande d'inscription pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de mise à jour de vos données pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de recherche de vos données de NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande de réimpression de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande d'activation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_eng, Nous avons reçu la demande de désactivation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
+  </si>
+  <si>
+    <t>Confirmation d'inscription</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de modification</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de recherche</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de réimpression</t>
+  </si>
+  <si>
+    <t>Confirmation de demande d'activation</t>
+  </si>
+  <si>
+    <t>Confirmation de demande de désactivation</t>
+  </si>
+  <si>
+    <t>L'inscription a échoué car vous êtes déjà enregistré</t>
+  </si>
+  <si>
+    <t>Veuillez vous ré-inscrire car il y a eu un problème technique</t>
+  </si>
+  <si>
+    <t>NIU a été activé avec succès</t>
+  </si>
+  <si>
+    <t>NIU a été désactivé</t>
+  </si>
+  <si>
+    <t>NIU généré</t>
+  </si>
+  <si>
+    <t>Données NIU modifiées</t>
+  </si>
+  <si>
+    <t>Détails complémentaires nécessaires pour avancer le processus de demande de NIU</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
+  </si>
+  <si>
+    <t>Confirmation de délivrance d'identification</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Le statut de traitement de votre demande de délivrance d'identification pour la requête ID $!RID est $!status. Merci!</t>
+  </si>
+  <si>
+    <t>Statut délivrance d'identification</t>
+  </si>
+  <si>
+    <t>Bonjour $!fullName, Votre demande d'identification avec la requête id $!RID a été annulé avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Annulation demande d'identification réussie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour $!fullName, Nous avons réussi une demande pour $!credentialName avec $!partnerName. La requête id est $!RID. La demande n'a pas pu être traitée. Veuillez réessayer plus tard. Merci </t>
+  </si>
+  <si>
+    <t>Echec délivrance d'identification</t>
+  </si>
+  <si>
+    <t>Authentification ID</t>
+  </si>
+  <si>
+    <t>Authentification INU $uin: $status</t>
+  </si>
+  <si>
+    <t>Processeur d'inscription</t>
+  </si>
+  <si>
+    <t>Processeur dinscription</t>
+  </si>
+  <si>
+    <t>Client dinscription</t>
+  </si>
+  <si>
+    <t>Confirmation d'enregistrement</t>
+  </si>
+  <si>
+    <t>Client d'inscription</t>
+  </si>
+  <si>
+    <t>Template for email confirmation</t>
+  </si>
+  <si>
+    <t>On-screen recognition template</t>
+  </si>
+  <si>
+    <t>OTP Email Content Template</t>
+  </si>
+  <si>
+    <t>Template for OTP email subject</t>
+  </si>
+  <si>
+    <t>Pre-enregistrement $PRID: demande d'OTP</t>
+  </si>
+  <si>
+    <t>Template for SMS Acknowledgment</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>reg-sms-notification</t>
+  </si>
+  <si>
+    <t>reg-email-notification</t>
+  </si>
+  <si>
+    <t>Service d'authentification OTP</t>
+  </si>
+  <si>
+    <t>Mot de passe temporaire (OTP)</t>
+  </si>
+  <si>
+    <t>INU $uin: demande de mot de passe (OTP)</t>
+  </si>
+  <si>
+    <t>Consentement</t>
+  </si>
+  <si>
+    <t>updateUIN-email-notification</t>
+  </si>
+  <si>
+    <t>updateUIN-sms-notification</t>
+  </si>
+  <si>
+    <t>lostUIN-email-notification</t>
+  </si>
+  <si>
+    <t>lostUIN-sms-notification</t>
+  </si>
+  <si>
+    <t>SMS de notification INU perdu</t>
+  </si>
+  <si>
+    <t>Email de notification INU perdu</t>
+  </si>
+  <si>
+    <t>Courriel de confirmation de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;} .bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt; &lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; #if ( !$isPreview &amp;&amp; $QRCodeSource ) &lt;td class=bottom&gt; &lt;img src=${QRCodeSource} width=85 height=85/&gt; &lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt;#if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt; &lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt; &lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt;#if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br/&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt;&lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt;$biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; &lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("LeftEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end #if( $isPreview &amp;&amp; $biometrics.get($key).get("CapturedLeftEye") )&lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt;#if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("RightEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftLittle&gt;$biometrics.get($key).get("leftLittle")&lt;/h5&gt; &lt;h5 class=leftRing&gt;$biometrics.get($key).get("leftRing")&lt;/h5&gt; &lt;h5 class=leftMiddle&gt;$biometrics.get($key).get("leftMiddle")&lt;/h5&gt; &lt;h5 class=leftIndex&gt;$biometrics.get($key).get("leftIndex")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=rightIndex&gt;$biometrics.get($key).get("rightIndex")&lt;/h5&gt; &lt;h5 class=rightMiddle&gt;$biometrics.get($key).get("rightMiddle")&lt;/h5&gt; &lt;h5 class=rightRing&gt;$biometrics.get($key).get("rightRing")&lt;/h5&gt; &lt;h5 class=rightLittle&gt;$biometrics.get($key).get("rightLittle")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftThumb&gt;$biometrics.get($key).get("leftThumb")&lt;/h5&gt; &lt;h5 class=rightThumb&gt;$biometrics.get($key).get("rightThumb")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt;&lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;div&gt; &lt;table class=dataTable&gt; &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;${RONameLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;&lt;/td&gt; &lt;td&gt; &lt;p class=headings&gt;${RegCenterLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;hr/&gt; &lt;br/&gt; &lt;/div&gt;&lt;div&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt; &lt;ul&gt; #foreach( $line in $Guidelines ) &lt;li&gt;&lt;span&gt;${line}&lt;/span&gt;&lt;/li&gt; #end &lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt;&lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt;&lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Pré-inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-enregistrement $PRID: accusé de réception </t>
+  </si>
+  <si>
+    <t>Historique de l'authentification des services résidents SMS de transaction</t>
+  </si>
+  <si>
+    <t>SMS de réussite de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Demande d'historique d'authentification Traitée</t>
+  </si>
+  <si>
+    <t>Téléchargement réussi du courriel e-INU</t>
+  </si>
+  <si>
+    <t>Téléchargement réussi de l'objet de l'e-INU</t>
+  </si>
+  <si>
+    <t>e-INU : téléchargement effectué</t>
+  </si>
+  <si>
+    <t>Téléchargement réussi de l'e-INU SMS</t>
+  </si>
+  <si>
+    <t>Verrouillage réussi des e-mails des types d'authentification</t>
+  </si>
+  <si>
+    <t>Verrouillage réussi des types d'authentification SMS</t>
+  </si>
+  <si>
+    <t>Déverrouillage réussi des types d'authentification</t>
+  </si>
+  <si>
+    <t>Déverrouillage réussi des types d'authentification Objet de l'e-mail</t>
+  </si>
+  <si>
+    <t>Déverrouillage réussi des types d'authentification SMS</t>
+  </si>
+  <si>
+    <t>E-mail de réussite de la génération VID</t>
+  </si>
+  <si>
+    <t>Sujet de l'e-mail de réussite de la génération VID</t>
+  </si>
+  <si>
+    <t>SMS de réussite de génération VID</t>
+  </si>
+  <si>
+    <t>E-mail de réussite de la révocation de VID</t>
+  </si>
+  <si>
+    <t>Sujet de l'e-mail de réussite de la révocation de VID</t>
+  </si>
+  <si>
+    <t>Identifiant virtuel VID : révocation réussie</t>
+  </si>
+  <si>
+    <t>Réimpression de l'e-mail de réussite de la demande</t>
+  </si>
+  <si>
+    <t>Sujet de l'e-mail de demande de réimpression réussie</t>
+  </si>
+  <si>
+    <t>INU : réimpression réussie</t>
+  </si>
+  <si>
+    <t>Réimpression SMS de réussite de la demande</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Objet de l'e-mail d'échec de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>SMS d'échec de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Télécharger l'e-mail d'échec e-INU</t>
+  </si>
+  <si>
+    <t>Télécharger le sujet de l'e-mail d'échec e-INU</t>
+  </si>
+  <si>
+    <t>Télécharger le SMS d'échec e-INU</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de la demande de réimpression</t>
+  </si>
+  <si>
+    <t>SMS d'échec de la demande de réimpression</t>
+  </si>
+  <si>
+    <t>Type AUTH : Echec déverrouillage</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de génération de VID</t>
+  </si>
+  <si>
+    <t>Objet de l'e-mail d'échec de génération de VID</t>
+  </si>
+  <si>
+    <t>Identifiant virtual VID : Echec génération</t>
+  </si>
+  <si>
+    <t>SMS d'échec de génération de VID</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de révocation de VID</t>
+  </si>
+  <si>
+    <t>Objet de l'e-mail d'échec de la révocation du VID</t>
+  </si>
+  <si>
+    <t>SMS d'échec de révocation de VID</t>
+  </si>
+  <si>
+    <t>Modèle de contenu de courriel pour un nouvel enregistrement</t>
+  </si>
+  <si>
+    <t>Modèle d'objet pour une nouvel enregistrement</t>
+  </si>
+  <si>
+    <t>Modèle d'objet pour un nouvel enregistrment</t>
+  </si>
+  <si>
+    <t>Modèle de SMS pour un nouvel enregistrement</t>
+  </si>
+  <si>
+    <t>Modèle de nouvelle inscription SMS</t>
+  </si>
+  <si>
+    <t>Modèle de contenu d'autorisation</t>
+  </si>
+  <si>
+    <t>Modèle d'objet d'autorisation</t>
+  </si>
+  <si>
+    <t>Modèle d'object d'autorisation</t>
+  </si>
+  <si>
+    <t>Modèle de SMS d'autorisation</t>
+  </si>
+  <si>
+    <t>Modèle de courrier d'identité en double</t>
+  </si>
+  <si>
+    <t>Modèle de SMS d'identité en double</t>
+  </si>
+  <si>
+    <t>Modèle de courriel pour incident technique</t>
+  </si>
+  <si>
+    <t>Modèle de SMS d'incident technique</t>
+  </si>
+  <si>
+    <t>Modèle de courriel de génération d'INU</t>
+  </si>
+  <si>
+    <t>Modèle de SMS de génération d'INU</t>
+  </si>
+  <si>
+    <t>Modèle de contenu de courriel de génération d'OTP</t>
+  </si>
+  <si>
+    <t>Modèle de contenu de contenu courriel de génération d'OTP</t>
+  </si>
+  <si>
+    <t>Modèle d'objet pour le courriel de génération d'OTP</t>
+  </si>
+  <si>
+    <t>Modèle de SMS OTP</t>
+  </si>
+  <si>
+    <t>Modèle pour le sujet d'email d'accusé de réception</t>
+  </si>
+  <si>
+    <t>Modèle de carte INU</t>
+  </si>
+  <si>
+    <t>Modèle pour courrier électronique de problème technique</t>
+  </si>
+  <si>
+    <t>Modèle SMS d'accusé de réception</t>
+  </si>
+  <si>
+    <t>Modèle de confirmation dinscription</t>
+  </si>
+  <si>
+    <t>Modèle de courrier électronique d'accusé de réception</t>
+  </si>
+  <si>
+    <t>Modèle de confirmation d inscription</t>
+  </si>
+  <si>
+    <t>Modèle de contenu de courrier électronique</t>
+  </si>
+  <si>
+    <t>Modèle pour sujet demail</t>
+  </si>
+  <si>
+    <t>Modèle pour OTP dans SMS</t>
+  </si>
+  <si>
+    <t>Modèle d'email de reconnaissance</t>
+  </si>
+  <si>
+    <t>Modèle de confirmation d'inscription</t>
+  </si>
+  <si>
+    <t>Modèle de SMS de reconnaissance</t>
+  </si>
+  <si>
+    <t>Modèle pour annuler un rendez-vous</t>
+  </si>
+  <si>
+    <t>Modèle de masque pour carte INU</t>
+  </si>
+  <si>
+    <t>Succès EMAIL de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Succès du verrouillage des types d'authentification</t>
+  </si>
+  <si>
+    <t>Le ou les types AUTH ont été verrouillés avec succès</t>
+  </si>
+  <si>
+    <t>Déverrouillé avec succès le (s) type (s) AUTH</t>
+  </si>
+  <si>
+    <t>Identifiant virtuel VID généré avec succès</t>
+  </si>
+  <si>
+    <t>SMS de succès de révocation VID</t>
+  </si>
+  <si>
+    <t>Échec du verrouillage des e-mails des types d'authentification</t>
+  </si>
+  <si>
+    <t>Échec du verrouillage des types d'authentification Objet de l'e-mail</t>
+  </si>
+  <si>
+    <t>Types AUTH : Échec du verrouillage</t>
+  </si>
+  <si>
+    <t>Échec du verrouillage des types d'authentification SMS</t>
+  </si>
+  <si>
+    <t>Échec de la demande de réimpression Objet de l'e-mail</t>
+  </si>
+  <si>
+    <t>INU : Échec de la demande de réimpression</t>
+  </si>
+  <si>
+    <t>Échec du déverrouillage de la messagerie électronique des types d'authentification</t>
+  </si>
+  <si>
+    <t>Échec du déverrouillage du sujet de l'e-mail des types d'authentification</t>
+  </si>
+  <si>
+    <t>Échec de déverrouillage des types d'authentification SMS</t>
+  </si>
+  <si>
+    <t>Identifiant virtuel VID : Échec de révocation</t>
+  </si>
+  <si>
+    <t>Échec de la demande d'historique d'authentification</t>
+  </si>
+  <si>
+    <t>Échec du téléchargement du e-INU</t>
+  </si>
+  <si>
+    <t>Livraison du mot de passe à  usage unique (OTP)</t>
+  </si>
+  <si>
+    <t>E-mail de demande de mise à  jour INU placé avec succès</t>
+  </si>
+  <si>
+    <t>Sujet de la demande de mise à  jour INU placé avec succès</t>
+  </si>
+  <si>
+    <t>INU : Demande de mise à  jour effectuée avec succès</t>
+  </si>
+  <si>
+    <t>Demande de mise à  jour INU placée avec succès SMS</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de la demande de mise à  jour INU</t>
+  </si>
+  <si>
+    <t>Échec de la demande de mise à  jour de l'INU</t>
+  </si>
+  <si>
+    <t>INU : Échec de la demande de mise à  jour</t>
+  </si>
+  <si>
+    <t>Echec de la demande de mise à  jour INU SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cher(e) $name; les détails de votre authentification avec l'INU $uin par les services WURI : Type : $authType ; Date et Heure : $date à  $time Hrs ; Statut : $status; </t>
+  </si>
+  <si>
+    <t>Modèle de courriel pour la mise à  jour des infos</t>
+  </si>
+  <si>
+    <t>Modèle de SMS pour la mise à  jour des infos</t>
+  </si>
+  <si>
+    <t>Votre mot de passe WURI à  usage unique (OTP)</t>
+  </si>
+  <si>
+    <t>Modèle pour l'enregistrement de la mise à  jour</t>
+  </si>
+  <si>
+    <t>Modèle pour lenregistrement de la mise à  jour</t>
+  </si>
+  <si>
+    <t>Modèle d'objet pour enregistrement des mises à  jour</t>
+  </si>
+  <si>
+    <t>Confirmation de la mise à  jour des données d'enregistrement</t>
+  </si>
+  <si>
+    <t>Modèle pour SMS denregistrement de mise à  jour</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué à  cause d'un incident technique. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué à  cause d'un incident technique. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;, Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. , Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;, Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. , Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Les informations de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour. _x000D_, Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Les infos de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour. _x000D_, Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Merci de vous être inscrit sur la plateforme d'identification numérique WURI GUINEE. Votre numéro d'enregistrement est $RegistrationID. _x000D_, Si des corrections doivent être apportées à  vos données; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Merci de vous être inscrit sur la plateforme d'identification numérique WURI GUINEE. Votre numéro d'enregistrement est $RegistrationID. _x000D_, Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, L'OTP pour l'utilisateur $username est $otp. Il est valide pour $validTime minutes._x000D_, Il a été généré le $date à  $heure hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Merci de mettre à  jour vos coordonnées sur la plateforme d’identité numérique WURI GUINEE.Votre identifiant d'enregistrement est $RegistrationID. _x000D_, Si des corrections doivent être apportées à  vos données; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Merci de mettre à  jour vos coordonnées sur la plateforme d’identification numérique WURI GUINEE. Votre identifiant d'enregistrement est $RegistrationID. _x000D_, Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; , votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès., Votre numéro de pré-enregistrement est $PRID., Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime., vous recevrez également les détails sur votre numéro de téléphone</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;, Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numéro de pre-enregistrement : $PRID, Il a été généré le $date à  $heure hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numéro de pre-enregistrement : $PRID_x000D_, Il a été généré le $date à  $heure hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; _x000D_, votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès._x000D_, Votre numéro de pré-enregistrement est $PRID._x000D_, Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime._x000D_, vous recevrez également les détails sur votre adresse email</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre INU a été désactivé.Si vous souhaitez le réactiver; veuillez nous contacter au incident@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre INU a été désactivé.Si vous souhaitez le réactiver; _x000D_, veuillez nous contacter au incident@inu.gov.gn ou +224622227491.Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre INU a été réactivé.Pour toute question; veuillez nous contacter au incident@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra;_x000D_, Votre INU a été réactivé.Pour toute question; veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName};, Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE. , Votre identifiant d''inscription est "${RID}". , Vos détails démographiques sont :, 1.Date d'enregistrement:${Date}, 2.Nom et Prénoms:${name}, 3.Date de naissance:${DOB}, 4.Genre:${Gender}, 5.Adresse :${AddressLine1}, 6.Ville:${City}, 7.code postal - Province: ${PostalCode} - ${Province}, 8.Région:${Region}, 9.Téléphone:${Mobile}, 10.Email:${Email}</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName};_x000D_, Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE. _x000D_, Votre identifiant d''inscription est "${RID}". _x000D_, Vos détails démographiques sont :_x000D_, 1.Date d'enregistrement:${Date}_x000D_, 2.Nom et Prénoms:${name}_x000D_, 3.Date de naissance:${DOB}_x000D_, 4.Genre:${Gender}_x000D_, 5.Adresse :${AddressLine1}_x000D_, 6.Ville:${City}_x000D_, 7.code postal - Province: ${PostalCode} - ${Province}_x000D_, 8.Région:${Region}_x000D_, 9.Numéro de portable:${Mobile}_x000D_, 10.Email:${Email}</t>
+  </si>
+  <si>
+    <t>Monsieur/Madame;, Votre mot de passe à  usage unique $otp. Sa durée de validité est de 3 minutes., , Cordialement;, L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Monsieur/Madame;, Veuillez trouver ci-joint votre mot de passe à  usage unique $otp. Ce code vous permettra l’accès à  nos services d'enrôlement. Sa durée de validité est de 3 minutes., , Cordialement;, L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e); _x000D_, Veuilez trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e); _x000D_, Merci de trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, Votre mot de passe OTP est $otp. Il correspond au INU $uin. Attention; il est valide pour $validTime minutes_x000D_, Il a été généré le $date à  $time Hrs; Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName}; _x000D_, Veuillez mettre à  jour vos coordonnées sur la plateforme d’identification WURI. Votre identifiant d'inscription est "${RID}".</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e); _x000D_, Nous accusons réception de votre requête sur la perte de votre INU . Votre numéro d'enregistrement pour cette demande est "${RID}".</t>
+  </si>
+  <si>
+    <t>Bonjour $firstName $lastName; _x000D_, Votre rendez-vous prévu le $Appointmentdate à  $Appointmenttime pour l'obtention de votre INU (référence $PRID) a été annulé. _x000D_, Nous vous invitons à  prendre un nouveau rendez-vous si besoin à  l'adresse suivante: http://inu.gov.gn _x000D_, _x000D_, Cordialement; _x000D_, L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre carte INU a été retrouvée. Pour la récuperer; veuillez nous contacter au inu@inu.gov.gn ou +224622227491</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande d'historique d'authentification a été traitée avec succès._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Le ou les types AUTH que vous avez demandés ont été verrouillés avec succès._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Le ou les types AUTH demandés ont été déverrouillés avec succès._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre identifiant virtuel VID a été généré avec succès. Votre numéro VID est $VID._x000D_, Vous pouvez l'utiliser à  la place de votre INU._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre identifiant virtuel VID de numéro $VID a été révoqué avec succès._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de Réimpression d'INU a été traitée avec succès. Votre numéro de demande est $RID._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de récupération des détails de votre historique d'authentification a échoué._x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de téléchargement du e-INU a échoué. Veuillez réessayer ultérieurement._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de téléchargement du e-INU a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre ou vos types de verrouillage AUTH demandés ont échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de réimpression de la carte INU a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_fra;_x000D_, Votre demande de déverrouillage de type (s) AUTH a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de déverrouillage de type (s) AUTH a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, La génération de votre identifiant virtuel VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, La génération de votre identifiant virtuel $VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, La révocation de votre identifiant virtual $VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Votre demande de mise à  jour du INU a été traitée avec succès. _x000D_, Pour toute question; votre numéro de demande est $RID._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra;_x000D_, Nous n'avons pas pu traiter votre demande de mise à  jour INU. Nous nous en excusons._x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; veuillez apporter les documents suivants si vous en avez
+1. Preuve de consentement : disponible à  l'adresse uin.gov.gn/consentement ou au bureau d'enregistrement dans le cas échéant
+2. Pièce d'identité : carte nationale d'identité; passeport; ....
+3. Justificatif d'adresse : certificat de résidence; attestation d'hébergement; facture d'électricite ou d'eau; ou autre
+4. Justificat de naissance : extrait de naissance; déclaration de naissance</t>
+  </si>
+  <si>
+    <t>J'autorise WURI à  recueillir l'ensemble des données démographiques et biométriques nécessaires à  l'identification numérique; qui sont :
+•                     Nom et prénoms
+•                     Date de naissance
+•                     Genre
+•                     Adresse
+•                     Email et téléphone
+•                     Données biométriques
+•                     Documents et Justificatifs
+Je comprends également que ces informations seront stockées et traitées dans le but de vérifier mon identité ou , celle des personnes dont je suis tuteur; afin d'accéder à  divers services. Par conséquent; je donne mon consentement.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;title&gt;Consent&lt;/title&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;Je comprends que mes données collectées pendant la pré-inscription par l'autorité concernée sont mon &lt;br&gt;&lt;br&gt;&amp;#x2022 Nom &lt;br&gt; &amp;#x2022 Date de naissance &lt;br&gt; &amp;#x2022 Genre &lt;br&gt; &amp;#x2022 Adresse &lt;br&gt; &amp;#x2022 Contacts &lt;br&gt; &amp;#x2022 Documents&lt;br&gt; &amp;#x2022 Biométrie &lt;br&gt; &lt;br&gt;Je comprends que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder  divers services, ou pour être conforme aux obligations légales. Je donnée mon concentement pour la collecte de mes données dans ce but. &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu votre demande d'inscription pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de mise à jour de vos données pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonjour $!name_eng, Nous avons reçu la demande de recherche de vos données de NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci </t>
-  </si>
-  <si>
-    <t>Bonjour $!name_eng, Nous avons reçu la demande de réimpression de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_eng, Nous avons reçu la demande d'activation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_eng, Nous avons reçu la demande de désactivation de votre NIU pour l'ID : $!RID. Votre demande est en cours de traitement. Merci</t>
-  </si>
-  <si>
-    <t>Confirmation d'inscription</t>
-  </si>
-  <si>
-    <t>Confirmation de demande de modification</t>
-  </si>
-  <si>
-    <t>Confirmation de demande de recherche</t>
-  </si>
-  <si>
-    <t>Confirmation de demande de réimpression</t>
-  </si>
-  <si>
-    <t>Confirmation de demande d'activation</t>
-  </si>
-  <si>
-    <t>Confirmation de demande de désactivation</t>
-  </si>
-  <si>
-    <t>Cher $!name_eng,
-Votre demande de NIU pour l'inscription ID: $!RID est en attente car nécessite les informations complémentaires  is on hold because of requiring additional details with AdditionalInfoRequestId $!additionalInfoRequestId et additionalInfoProcess $!additionalInfoProcess. Veuillez vous approcher du centre d'enregistrement le plus proche pour faire progresse votre demande.
-Merci</t>
-  </si>
-  <si>
-    <t>L'inscription a échoué car vous êtes déjà enregistré</t>
-  </si>
-  <si>
-    <t>Veuillez vous ré-inscrire car il y a eu un problème technique</t>
-  </si>
-  <si>
-    <t>NIU a été activé avec succès</t>
-  </si>
-  <si>
-    <t>NIU a été désactivé</t>
-  </si>
-  <si>
-    <t>NIU généré</t>
-  </si>
-  <si>
-    <t>Données NIU modifiées</t>
-  </si>
-  <si>
-    <t>Détails complémentaires nécessaires pour avancer le processus de demande de NIU</t>
-  </si>
-  <si>
-    <t>Bonjour $!fullName, Nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
-  </si>
-  <si>
-    <t>Bonjour $!fullName, nous avons reçu une demande pour $!credentialName avec $!partnerName. L'Id de la requête est $!RID et votre clé de cryptage est $!encryptionKey. Cette demande est en cours de traitement. Merci!</t>
-  </si>
-  <si>
-    <t>Confirmation de délivrance d'identification</t>
-  </si>
-  <si>
-    <t>Bonjour $!fullName, Le statut de traitement de votre demande de délivrance d'identification pour la requête ID $!RID est $!status. Merci!</t>
-  </si>
-  <si>
-    <t>Statut délivrance d'identification</t>
-  </si>
-  <si>
-    <t>Bonjour $!fullName, Votre demande d'identification avec la requête id $!RID a été annulé avec succès. Merci!</t>
-  </si>
-  <si>
-    <t>Annulation demande d'identification réussie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonjour $!fullName, Nous avons réussi une demande pour $!credentialName avec $!partnerName. La requête id est $!RID. La demande n'a pas pu être traitée. Veuillez réessayer plus tard. Merci </t>
-  </si>
-  <si>
-    <t>Echec délivrance d'identification</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de contenu d'autorisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cher(e) $name;_x000D_
-Voici les dÃ©tails de votre authentification avec l'INU $uin sur le pÃ©riphÃ©rique dÃ©ployÃ© par les Services WURI:_x000D_
-- Type d'authentification : $authType _x000D_
-- Date et Heure : $date Ã  $time Hrs _x000D_
-- Statut : $status </t>
-  </si>
-  <si>
-    <t>Authentification ID</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'objet d'autorisation</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'object d'autorisation</t>
-  </si>
-  <si>
-    <t>Authentification INU $uin: $status</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS d'autorisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cher(e) $name; les dÃ©tails de votre authentification avec l'INU $uin par les services WURI : Type : $authType ; Date et Heure : $date Ã  $time Hrs ; Statut : $status; </t>
-  </si>
-  <si>
-    <t>ModÃ¨le de courrier d'identitÃ© en double</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre demande d'INU avec le numÃ©ro d'enregistrement: $!RID a Ã©chouÃ© car un doublon a Ã©tÃ© dÃ©tectÃ©. _x000D_
-Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>Processeur d'inscription</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS d'identitÃ© en double</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre demande d'INU avec le numÃ©ro d'enregistrement: $!RID a Ã©chouÃ© car un doublon a Ã©tÃ© dÃ©tectÃ©. _x000D_
-Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491</t>
-  </si>
-  <si>
-    <t>Processeur dinscription</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de courriel pour incident technique</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre demande d'INU avec le numÃ©ro d'enregistrement: $!RID a Ã©chouÃ© Ã  cause d'un incident technique. _x000D_
-Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS d'incident technique</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre demande d'INU avec le numÃ©ro d'enregistrement: $!RID a Ã©chouÃ© Ã  cause d'un incident technique. _x000D_
-Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de courriel de gÃ©nÃ©ration d'INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre INU avec le numÃ©ro dâ€™enregistrement: $!RID a Ã©tÃ© gÃ©nÃ©rÃ© avec succÃ¨s. _x000D_
-Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS de gÃ©nÃ©ration d'INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre INU avec le numÃ©ro dâ€™enregistrement: $!RID a Ã©tÃ© gÃ©nÃ©rÃ© avec succÃ¨s. _x000D_
-Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de courriel pour la mise Ã  jour des infos</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Les informations de votre INU correspondant au numÃ©ro dâ€™enregistrement: $!RID ont Ã©tÃ© mises Ã  jour. _x000D_
-Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour rÃ©cupÃ©rer votre nouvelle carte INU._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS pour la mise Ã  jour des infos</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Les infos de votre INU correspondant au numÃ©ro dâ€™enregistrement: $!RID ont Ã©tÃ© mises Ã  jour. _x000D_
-Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour rÃ©cupÃ©rer votre nouvelle carte INU._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de contenu de courriel pour un nouvel enregistrement</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Merci de vous Ãªtre inscrit sur la plateforme d'identification numÃ©rique WURI GUINEE. Votre numÃ©ro d'enregistrement est $RegistrationID. _x000D_
-Si des corrections doivent Ãªtre apportÃ©es Ã  vos donnÃ©es; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Client dinscription</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'objet pour une nouvel enregistrement</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'objet pour un nouvel enregistrment</t>
-  </si>
-  <si>
-    <t>Confirmation d'enregistrement</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS pour un nouvel enregistrement</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de nouvelle inscription SMS</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Merci de vous Ãªtre inscrit sur la plateforme d'identification numÃ©rique WURI GUINEE. Votre numÃ©ro d'enregistrement est $RegistrationID. _x000D_
-Si des corrections sont nÃ©cessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de contenu de courriel de gÃ©nÃ©ration d'OTP</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de contenu de contenu courriel de gÃ©nÃ©ration d'OTP</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-L'OTP pour l'utilisateur $username est $otp. Il est valide pour $validTime minutes._x000D_
-Il a Ã©tÃ© gÃ©nÃ©rÃ© le $date Ã  $heure hrs.</t>
-  </si>
-  <si>
-    <t>Client d'inscription</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'objet pour le courriel de gÃ©nÃ©ration d'OTP</t>
-  </si>
-  <si>
-    <t>Votre mot de passe WURI Ã  usage unique (OTP)</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS OTP</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour l'enregistrement de la mise Ã  jour</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour lenregistrement de la mise Ã  jour</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Merci de mettre Ã  jour vos coordonnÃ©es sur la plateforme dâ€™identitÃ© numÃ©rique WURI GUINEE.Votre identifiant d'enregistrement est $RegistrationID. _x000D_
-Si des corrections doivent Ãªtre apportÃ©es Ã  vos donnÃ©es; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'objet pour enregistrement des mises Ã  jour</t>
-  </si>
-  <si>
-    <t>Confirmation de la mise Ã  jour des donnÃ©es d'enregistrement</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour SMS denregistrement de mise Ã  jour</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Merci de mettre Ã  jour vos coordonnÃ©es sur la plateforme dâ€™identification numÃ©rique WURI GUINEE. Votre identifiant d'enregistrement est $RegistrationID. _x000D_
-Si des corrections sont nÃ©cessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Template for email confirmation</t>
-  </si>
-  <si>
-    <t>Cher(e) $name; _x000D_
-votre prÃ©-enregistrement pour l'obtention d'INU effectuÃ©e le sur $Date Ã  $Time est terminÃ©e avec succÃ¨s._x000D_
-Votre numÃ©ro de prÃ©-enregistrement est $PRID._x000D_
-Votre rendez-vous d'enregistrement est prÃ©vu le $Appointmentdate Ã  $Appointmenttime._x000D_
-vous recevrez Ã©galement les dÃ©tails sur votre numÃ©ro de tÃ©lÃ©phone</t>
-  </si>
-  <si>
-    <t>PrÃ©-inscription</t>
-  </si>
-  <si>
-    <t>On-screen recognition template</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cher(e) $name; veuillez apporter les documents suivants si vous en avez_x000D_
-1. Preuve de consentement : disponible Ã  l'adresse uin.gov.gn/consentement ou au bureau d'enregistrement dans le cas Ã©chÃ©ant_x000D_
-2. PiÃ¨ce d'identitÃ© : carte nationale d'identitÃ©; passeport; ...._x000D_
-3. Justificatif d'adresse : certificat de rÃ©sidence; attestation d'hÃ©bergement; facture d'Ã©lectricite ou d'eau; ou autre_x000D_
-4. Justificat de naissance : extrait de naissance; dÃ©claration de naissance_x000D_
-</t>
-  </si>
-  <si>
-    <t>OTP Email Content Template</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numÃ©ro de pre-enregistrement : $PRID_x000D_
-Il a Ã©tÃ© gÃ©nÃ©rÃ© le $date Ã  $heure hrs.</t>
-  </si>
-  <si>
-    <t>Template for OTP email subject</t>
-  </si>
-  <si>
-    <t>Pre-enregistrement $PRID: demande d'OTP</t>
-  </si>
-  <si>
-    <t>Template for SMS Acknowledgment</t>
-  </si>
-  <si>
-    <t>Cher(e) $name; _x000D_
-votre prÃ©-enregistrement pour l'obtention d'INU effectuÃ©e le sur $Date Ã  $Time est terminÃ©e avec succÃ¨s._x000D_
-Votre numÃ©ro de prÃ©-enregistrement est $PRID._x000D_
-Votre rendez-vous d'enregistrement est prÃ©vu le $Appointmentdate Ã  $Appointmenttime._x000D_
-vous recevrez Ã©galement les dÃ©tails sur votre adresse email</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour le sujet d'email d'accusÃ© de rÃ©ception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrÃ©-enregistrement $PRID: accusÃ© de rÃ©ception </t>
-  </si>
-  <si>
-    <t>ModÃ¨le de carte INU</t>
+    <t>Cher $!name_eng,, Votre demande de NIU pour l'inscription ID: $!RID est en attente car nécessite les informations complémentaires  is on hold because of requiring additional details with AdditionalInfoRequestId $!additionalInfoRequestId et additionalInfoProcess $!additionalInfoProcess. Veuillez vous approcher du centre d'enregistrement le plus proche pour faire progresse votre demande.,  , Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra, Votre demande d'UIN pour l'ID d'enregistrement : $!RID est en attente car vous avez besoin de détails supplémentaires avec AdditionalInfoRequestId $!additionalInfoRequestId et additionalInfoProcess $!additionalInfoProcess.</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;_x000D_
@@ -1046,335 +1407,7 @@
 &lt;head&gt;_x000D_
 	&lt;meta charset="utf-8"&gt;_x000D_
 	&lt;meta name="viewport" content="width=device-width; initial-scale=1"&gt;_x000D_
-	&lt;title&gt;ModÃ¨le de Carte INU&lt;/title&gt;_x000D_
-&lt;style&gt;_x000D_
-.main-table {_x000D_
-	margin-left: 60px;;_x000D_
-	width: 600px;_x000D_
-	height: 350px;_x000D_
-	border: 1px solid black;_x000D_
-}_x000D_
-.cir {_x000D_
-	display: inline-block;_x000D_
-	border-radius: 60px;_x000D_
-	box-shadow: 0px 0px 2px #000000;_x000D_
-	padding: 0.5em 0.6em;_x000D_
-}_x000D_
-.name-head-color {_x000D_
-	color: black;_x000D_
-}_x000D_
-.head-title {_x000D_
-	margin-left: -85px;_x000D_
-}_x000D_
-.bar-code-padding {_x000D_
-	margin-top: 20px;_x000D_
-	margin-left: 20px;_x000D_
-}_x000D_
-.top-buffer {_x000D_
-	margin-left:10px;_x000D_
-}_x000D_
-&lt;/style&gt;_x000D_
-&lt;/head&gt;_x000D_
-_x000D_
-&lt;body&gt;_x000D_
-&lt;table class="main-table"&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td&gt;&amp;nbsp;_x000D_
-&lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; R&amp;eacute;publique de Guin&amp;eacute;e &amp;nbsp;&amp;nbsp; &lt;/font&gt;_x000D_
-&lt;/label&gt;&lt;/td&gt;_x000D_
-&lt;td rowspan="4"&gt;_x000D_
-&lt;div&gt;_x000D_
-&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;_x000D_
-&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td rowspan="1"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;label class="name-head-color"&gt;&lt;b&gt;INU&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td rowspan="1"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;label class="name-head-color"&gt;&lt;b&gt;Nom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; _x000D_
-&lt;span class="name-color"&gt; $!lastName_fra&lt;/span&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td rowspan="1"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;label class="name-head-color"&gt;&lt;b&gt;Pr&amp;eacute;noms&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; _x000D_
-&lt;span class="name-color"&gt; $!firstName_fra&lt;/span&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td rowspan="1"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;label class="name-head-color"&gt;&lt;b&gt;Date de naissance&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;_x000D_
-&lt;span&gt;$!dateOfBirth&lt;/span&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td colspan="2"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;label class="name-head-color"&gt;&lt;b&gt;Genre&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt; _x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td colspan="3"&gt;_x000D_
-&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;_x000D_
-&lt;div class="col-md-2 top-buffer"&gt;_x000D_
-&lt;div class="block top-buffer"&gt;_x000D_
-&lt;table&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;td&gt;&lt;span&gt;$!addressLine1_fra; $!city_fra; $!postalCode $!province_fra; $!region_fra;&lt;/span&gt;&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;/table&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;/table&gt;_x000D_
-&lt;div&gt;&amp;nbsp;&lt;/div&gt;_x000D_
-&lt;table class="main-table" style="height: 300px"&gt;_x000D_
-&lt;tr&gt;_x000D_
-&lt;td&gt;_x000D_
-&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;_x000D_
-&lt;div class="col-md-6"&gt;_x000D_
-&lt;div class="bar-code-padding"&gt;&lt;/div&gt;_x000D_
-&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;td&gt;_x000D_
-&lt;div class="name-head-color col-md-6"&gt;_x000D_
-&lt;br&gt; Cette carte a &amp;eacute;t&amp;eacute; &amp;eacute;mise par WURI GUINEE_x000D_
-&lt;br&gt; Pour toute question; veuillez nous contacter au :_x000D_
-&lt;br&gt; &lt;b&gt;Email&amp;nbsp;:&amp;nbsp;&lt;/b&gt;contact@inu.gov.gn _x000D_
-&lt;br&gt; &lt;b&gt;T&amp;eacute;l&amp;eacute;phone&amp;nbsp;:&amp;nbsp;&lt;/b&gt;+224622227491_x000D_
-&lt;br&gt; &lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;R&amp;eacute;sidence Corail; Camayenne - Commune Dixinn; Conakry - Guin&amp;eacute;e_x000D_
-&lt;/div&gt;_x000D_
-&lt;/td&gt;_x000D_
-&lt;/tr&gt;_x000D_
-&lt;/table&gt;_x000D_
-&lt;/body&gt;_x000D_
-&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour courrier Ã©lectronique de problÃ¨me technique</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre INU a Ã©tÃ© dÃ©sactivÃ©.Si vous souhaitez le rÃ©activer; veuillez nous contacter au incident@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre INU a Ã©tÃ© dÃ©sactivÃ©.Si vous souhaitez le rÃ©activer; _x000D_
-veuillez nous contacter au incident@inu.gov.gn ou +224622227491.Merci</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre INU a Ã©tÃ© rÃ©activÃ©.Pour toute question; veuillez nous contacter au incident@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra;_x000D_
-Votre INU a Ã©tÃ© rÃ©activÃ©.Pour toute question; veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le SMS d'accusÃ© de rÃ©ception</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de confirmation dinscription</t>
-  </si>
-  <si>
-    <t>Cher(e) ${ResidentName};_x000D_
-Merci de vous Ãªtre inscrit sur la plateforme dâ€™identitÃ© numÃ©rique WURI GUINEE. _x000D_
-Votre identifiant d''inscription est "${RID}". _x000D_
-Vos dÃ©tails dÃ©mographiques sont :_x000D_
-1.Date d'enregistrement:${Date}_x000D_
-2.Nom et PrÃ©noms:${name}_x000D_
-3.Date de naissance:${DOB}_x000D_
-4.Genre:${Gender}_x000D_
-5.Adresse :${AddressLine1}_x000D_
-6.Ville:${City}_x000D_
-7.code postal - Province: ${PostalCode} - ${Province}_x000D_
-8.RÃ©gion:${Region}_x000D_
-9.TÃ©lÃ©phone:${Mobile}_x000D_
-10.Email:${Email}</t>
-  </si>
-  <si>
-    <t>Inscription</t>
-  </si>
-  <si>
-    <t>reg-sms-notification</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de courrier Ã©lectronique d'accusÃ© de rÃ©ception</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de confirmation d inscription</t>
-  </si>
-  <si>
-    <t>Cher(e) ${ResidentName};_x000D_
-Merci de vous Ãªtre inscrit sur la plateforme dâ€™identitÃ© numÃ©rique WURI GUINEE. _x000D_
-Votre identifiant d''inscription est "${RID}". _x000D_
-Vos dÃ©tails dÃ©mographiques sont :_x000D_
-1.Date d'enregistrement:${Date}_x000D_
-2.Nom et PrÃ©noms:${name}_x000D_
-3.Date de naissance:${DOB}_x000D_
-4.Genre:${Gender}_x000D_
-5.Adresse :${AddressLine1}_x000D_
-6.Ville:${City}_x000D_
-7.code postal - Province: ${PostalCode} - ${Province}_x000D_
-8.RÃ©gion:${Region}_x000D_
-9.NumÃ©ro de portable:${Mobile}_x000D_
-10.Email:${Email}</t>
-  </si>
-  <si>
-    <t>reg-email-notification</t>
-  </si>
-  <si>
-    <t>Monsieur/Madame;_x000D_
-Votre mot de passe Ã  usage unique $otp. Sa durÃ©e de validitÃ© est de 3 minutes._x000D_
-_x000D_
-Cordialement;_x000D_
-L'Ã‰quipe WURI GuinÃ©e</t>
-  </si>
-  <si>
-    <t>Livraison du mot de passe Ã  usage unique (OTP)</t>
-  </si>
-  <si>
-    <t>Monsieur/Madame;_x000D_
-Veuillez trouver ci-joint votre mot de passe Ã  usage unique $otp. Ce code vous permettra lâ€™accÃ¨s Ã  nos services d'enrÃ´lement. Sa durÃ©e de validitÃ© est de 3 minutes._x000D_
-_x000D_
-Cordialement;_x000D_
-L'Ã‰quipe WURI GuinÃ©e</t>
-  </si>
-  <si>
-    <t>Service d'authentification OTP</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_
-Veuilez trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
-  </si>
-  <si>
-    <t>Mot de passe temporaire (OTP)</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_
-Merci de trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de contenu de courrier Ã©lectronique</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_
-Votre mot de passe OTP est $otp. Il correspond au INU $uin. Attention; il est valide pour $validTime minutes_x000D_
-Il a Ã©tÃ© gÃ©nÃ©rÃ© le $date Ã  $time Hrs; Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour sujet demail</t>
-  </si>
-  <si>
-    <t>INU $uin: demande de mot de passe (OTP)</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour OTP dans SMS</t>
-  </si>
-  <si>
-    <t>Consentement</t>
-  </si>
-  <si>
-    <t>J'autorise WURI Ã  recueillir l'ensemble des donnÃ©es dÃ©mographiques et biomÃ©triques nÃ©cessaires Ã  l'identification numÃ©rique; qui sont :_x000D_
-â€¢                     Nom et prÃ©noms_x000D_
-â€¢                     Date de naissance_x000D_
-â€¢                     Genre_x000D_
-â€¢                     Adresse_x000D_
-â€¢                     Email et tÃ©lÃ©phone_x000D_
-â€¢                     DonnÃ©es biomÃ©triques_x000D_
-â€¢                     Documents et Justificatifs_x000D_
-Je comprends Ã©galement que ces informations seront stockÃ©es et traitÃ©es dans le but de vÃ©rifier mon identitÃ© ou _x000D_
-celle des personnes dont je suis tuteur; afin d'accÃ©der Ã  divers services. Par consÃ©quent; je donne mon consentement.</t>
-  </si>
-  <si>
-    <t>ModÃ¨le d'email de reconnaissance</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de confirmation d'inscription</t>
-  </si>
-  <si>
-    <t>Cher(e) ${ResidentName}; _x000D_
-Veuillez mettre Ã  jour vos coordonnÃ©es sur la plateforme dâ€™identification WURI. Votre identifiant d'inscription est "${RID}".</t>
-  </si>
-  <si>
-    <t>updateUIN-email-notification</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de SMS de reconnaissance</t>
-  </si>
-  <si>
-    <t>updateUIN-sms-notification</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_
-Nous accusons rÃ©ception de votre requÃªte sur la perte de votre INU . Votre numÃ©ro d'enregistrement pour cette demande est "${RID}".</t>
-  </si>
-  <si>
-    <t>lostUIN-email-notification</t>
-  </si>
-  <si>
-    <t>lostUIN-sms-notification</t>
-  </si>
-  <si>
-    <t>ModÃ¨le pour annuler un rendez-vous</t>
-  </si>
-  <si>
-    <t>Bonjour $firstName $lastName; _x000D_
-Votre rendez-vous prÃ©vu le $Appointmentdate Ã  $Appointmenttime pour l'obtention de votre INU (rÃ©fÃ©rence $PRID) a Ã©tÃ© annulÃ©. _x000D_
-Nous vous invitons Ã  prendre un nouveau rendez-vous si besoin Ã  l'adresse suivante: http://inu.gov.gn _x000D_
-_x000D_
-Cordialement; _x000D_
-L'Ã‰quipe WURI GuinÃ©e</t>
-  </si>
-  <si>
-    <t>SMS de notification INU perdu</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-Votre carte INU a Ã©tÃ© retrouvÃ©e. Pour la rÃ©cuperer; veuillez nous contacter au inu@inu.gov.gn ou +224622227491</t>
-  </si>
-  <si>
-    <t>Email de notification INU perdu</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_
-veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>ModÃ¨le de masque pour carte INU</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;_x000D_
-&lt;html&gt;_x000D_
-&lt;head&gt;_x000D_
-	&lt;meta charset="utf-8"&gt;_x000D_
-	&lt;meta name="viewport" content="width=device-width; initial-scale=1"&gt;_x000D_
-	&lt;title&gt;ModÃ¨le de carte avec INU et VID&lt;/title&gt;_x000D_
+	&lt;title&gt;Modèle de carte avec INU et VID&lt;/title&gt;_x000D_
 &lt;style&gt;_x000D_
 .main-table {_x000D_
 	margin-left: 60px;;_x000D_
@@ -1516,320 +1549,140 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>Courriel de confirmation de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande d'historique d'authentification a Ã©tÃ© traitÃ©e avec succÃ¨s._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Historique de l'authentification des services rÃ©sidents SMS de transaction</t>
-  </si>
-  <si>
-    <t>SMS de rÃ©ussite de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>SuccÃ¨s EMAIL de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>Demande d'historique d'authentification TraitÃ©e</t>
-  </si>
-  <si>
-    <t>Demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©chargement rÃ©ussi du courriel e-INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-FÃ©licitations; la demande de tÃ©lÃ©chargement de votre e-INU a Ã©tÃ© effectuÃ©e avec succÃ¨s._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©chargement rÃ©ussi de l'objet de l'e-INU</t>
-  </si>
-  <si>
-    <t>e-INU : tÃ©lÃ©chargement effectuÃ©</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©chargement rÃ©ussi de l'e-INU SMS</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-FÃ©licitations; la demande de tÃ©lÃ©chargement de votre e-INU a Ã©tÃ© effectuÃ©e avec succÃ¨s._x000D_
-Merci</t>
-  </si>
-  <si>
-    <t>Verrouillage rÃ©ussi des e-mails des types d'authentification</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Le ou les types AUTH que vous avez demandÃ©s ont Ã©tÃ© verrouillÃ©s avec succÃ¨s._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>SuccÃ¨s du verrouillage des types d'authentification</t>
-  </si>
-  <si>
-    <t>Le ou les types AUTH ont Ã©tÃ© verrouillÃ©s avec succÃ¨s</t>
-  </si>
-  <si>
-    <t>Verrouillage rÃ©ussi des types d'authentification SMS</t>
-  </si>
-  <si>
-    <t>DÃ©verrouillage rÃ©ussi des types d'authentification</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Le ou les types AUTH demandÃ©s ont Ã©tÃ© dÃ©verrouillÃ©s avec succÃ¨s._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>DÃ©verrouillage rÃ©ussi des types d'authentification Objet de l'e-mail</t>
-  </si>
-  <si>
-    <t>DÃ©verrouillÃ© avec succÃ¨s le (s) type (s) AUTH</t>
-  </si>
-  <si>
-    <t>DÃ©verrouillage rÃ©ussi des types d'authentification SMS</t>
-  </si>
-  <si>
-    <t>E-mail de rÃ©ussite de la gÃ©nÃ©ration VID</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre identifiant virtuel VID a Ã©tÃ© gÃ©nÃ©rÃ© avec succÃ¨s. Votre numÃ©ro VID est $VID._x000D_
-Vous pouvez l'utiliser Ã  la place de votre INU._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Sujet de l'e-mail de rÃ©ussite de la gÃ©nÃ©ration VID</t>
-  </si>
-  <si>
-    <t>Identifiant virtuel VID gÃ©nÃ©rÃ© avec succÃ¨s</t>
-  </si>
-  <si>
-    <t>SMS de rÃ©ussite de gÃ©nÃ©ration VID</t>
-  </si>
-  <si>
-    <t>E-mail de rÃ©ussite de la rÃ©vocation de VID</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre identifiant virtuel VID de numÃ©ro $VID a Ã©tÃ© rÃ©voquÃ© avec succÃ¨s._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Sujet de l'e-mail de rÃ©ussite de la rÃ©vocation de VID</t>
-  </si>
-  <si>
-    <t>Identifiant virtuel VID : rÃ©vocation rÃ©ussie</t>
-  </si>
-  <si>
-    <t>SMS de succÃ¨s de rÃ©vocation VID</t>
-  </si>
-  <si>
-    <t>RÃ©impression de l'e-mail de rÃ©ussite de la demande</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de RÃ©impression d'INU a Ã©tÃ© traitÃ©e avec succÃ¨s. Votre numÃ©ro de demande est $RID._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Sujet de l'e-mail de demande de rÃ©impression rÃ©ussie</t>
-  </si>
-  <si>
-    <t>INU : rÃ©impression rÃ©ussie</t>
-  </si>
-  <si>
-    <t>RÃ©impression SMS de rÃ©ussite de la demande</t>
-  </si>
-  <si>
-    <t>E-mail d'Ã©chec de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de rÃ©cupÃ©ration des dÃ©tails de votre historique d'authentification a Ã©chouÃ©._x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Objet de l'e-mail d'Ã©chec de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>Ã‰chec de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>SMS d'Ã©chec de la demande d'historique d'authentification</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©charger l'e-mail d'Ã©chec e-INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de tÃ©lÃ©chargement du e-INU a Ã©chouÃ©. Veuillez rÃ©essayer ultÃ©rieurement._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©charger le sujet de l'e-mail d'Ã©chec e-INU</t>
-  </si>
-  <si>
-    <t>Ã‰chec du tÃ©lÃ©chargement du e-INU</t>
-  </si>
-  <si>
-    <t>TÃ©lÃ©charger le SMS d'Ã©chec e-INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de tÃ©lÃ©chargement du e-INU a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Ã‰chec du verrouillage des e-mails des types d'authentification</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre ou vos types de verrouillage AUTH demandÃ©s ont Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Ã‰chec du verrouillage des types d'authentification Objet de l'e-mail</t>
-  </si>
-  <si>
-    <t>Types AUTH : Ã‰chec du verrouillage</t>
-  </si>
-  <si>
-    <t>Ã‰chec du verrouillage des types d'authentification SMS</t>
-  </si>
-  <si>
-    <t>E-mail d'Ã©chec de la demande de rÃ©impression</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de rÃ©impression de la carte INU a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Ã‰chec de la demande de rÃ©impression Objet de l'e-mail</t>
-  </si>
-  <si>
-    <t>INU : Ã‰chec de la demande de rÃ©impression</t>
-  </si>
-  <si>
-    <t>SMS d'Ã©chec de la demande de rÃ©impression</t>
-  </si>
-  <si>
-    <t>Ã‰chec du dÃ©verrouillage de la messagerie Ã©lectronique des types d'authentification</t>
-  </si>
-  <si>
-    <t>Bonjour $fullName_fra;_x000D_
-Votre demande de dÃ©verrouillage de type (s) AUTH a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Ã‰chec du dÃ©verrouillage du sujet de l'e-mail des types d'authentification</t>
-  </si>
-  <si>
-    <t>Type AUTH : Echec dÃ©verrouillage</t>
-  </si>
-  <si>
-    <t>Ã‰chec de dÃ©verrouillage des types d'authentification SMS</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de dÃ©verrouillage de type (s) AUTH a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>E-mail d'Ã©chec de gÃ©nÃ©ration de VID</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-La gÃ©nÃ©ration de votre identifiant virtuel VID a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Objet de l'e-mail d'Ã©chec de gÃ©nÃ©ration de VID</t>
-  </si>
-  <si>
-    <t>Identifiant virtual VID : Echec gÃ©nÃ©ration</t>
-  </si>
-  <si>
-    <t>SMS d'Ã©chec de gÃ©nÃ©ration de VID</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-La gÃ©nÃ©ration de votre identifiant virtuel $VID a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>E-mail d'Ã©chec de rÃ©vocation de VID</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-La rÃ©vocation de votre identifiant virtual $VID a Ã©chouÃ©. _x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Objet de l'e-mail d'Ã©chec de la rÃ©vocation du VID</t>
-  </si>
-  <si>
-    <t>Identifiant virtuel VID : Ã‰chec de rÃ©vocation</t>
-  </si>
-  <si>
-    <t>SMS d'Ã©chec de rÃ©vocation de VID</t>
-  </si>
-  <si>
-    <t>E-mail de demande de mise Ã  jour INU placÃ© avec succÃ¨s</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Votre demande de mise Ã  jour du INU a Ã©tÃ© traitÃ©e avec succÃ¨s. _x000D_
-Pour toute question; votre numÃ©ro de demande est $RID._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Sujet de la demande de mise Ã  jour INU placÃ© avec succÃ¨s</t>
-  </si>
-  <si>
-    <t>INU : Demande de mise Ã  jour effectuÃ©e avec succÃ¨s</t>
-  </si>
-  <si>
-    <t>Demande de mise Ã  jour INU placÃ©e avec succÃ¨s SMS</t>
-  </si>
-  <si>
-    <t>E-mail d'Ã©chec de la demande de mise Ã  jour INU</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_
-Nous n'avons pas pu traiter votre demande de mise Ã  jour INU. Nous nous en excusons._x000D_
-Veuillez rÃ©essayer ultÃ©rieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_
-Merci!</t>
-  </si>
-  <si>
-    <t>Ã‰chec de la demande de mise Ã  jour de l'INU</t>
-  </si>
-  <si>
-    <t>INU : Ã‰chec de la demande de mise Ã  jour</t>
-  </si>
-  <si>
-    <t>Echec de la demande de mise Ã  jour INU SMS</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;} .bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt; &lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; #if ( !$isPreview &amp;&amp; $QRCodeSource ) &lt;td class=bottom&gt; &lt;img src=${QRCodeSource} width=85 height=85/&gt; &lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt;#if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt; &lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt; &lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt;#if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br/&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt;&lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt;$biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; &lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("LeftEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end #if( $isPreview &amp;&amp; $biometrics.get($key).get("CapturedLeftEye") )&lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt;#if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("RightEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftLittle&gt;$biometrics.get($key).get("leftLittle")&lt;/h5&gt; &lt;h5 class=leftRing&gt;$biometrics.get($key).get("leftRing")&lt;/h5&gt; &lt;h5 class=leftMiddle&gt;$biometrics.get($key).get("leftMiddle")&lt;/h5&gt; &lt;h5 class=leftIndex&gt;$biometrics.get($key).get("leftIndex")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=rightIndex&gt;$biometrics.get($key).get("rightIndex")&lt;/h5&gt; &lt;h5 class=rightMiddle&gt;$biometrics.get($key).get("rightMiddle")&lt;/h5&gt; &lt;h5 class=rightRing&gt;$biometrics.get($key).get("rightRing")&lt;/h5&gt; &lt;h5 class=rightLittle&gt;$biometrics.get($key).get("rightLittle")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftThumb&gt;$biometrics.get($key).get("leftThumb")&lt;/h5&gt; &lt;h5 class=rightThumb&gt;$biometrics.get($key).get("rightThumb")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt;&lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;div&gt; &lt;table class=dataTable&gt; &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;${RONameLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;&lt;/td&gt; &lt;td&gt; &lt;p class=headings&gt;${RegCenterLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;hr/&gt; &lt;br/&gt; &lt;/div&gt;&lt;div&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt; &lt;ul&gt; #foreach( $line in $Guidelines ) &lt;li&gt;&lt;span&gt;${line}&lt;/span&gt;&lt;/li&gt; #end &lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt;&lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt;&lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+    <t>&lt;!DOCTYPE html&gt;_x000D_
+&lt;html&gt;_x000D_
+&lt;head&gt;_x000D_
+	&lt;meta charset="utf-8"&gt;_x000D_
+	&lt;meta name="viewport" content="width=device-width; initial-scale=1"&gt;_x000D_
+	&lt;title&gt;Modèle de Carte INU&lt;/title&gt;_x000D_
+&lt;style&gt;_x000D_
+.main-table {_x000D_
+	margin-left: 60px;;_x000D_
+	width: 600px;_x000D_
+	height: 350px;_x000D_
+	border: 1px solid black;_x000D_
+}_x000D_
+.cir {_x000D_
+	display: inline-block;_x000D_
+	border-radius: 60px;_x000D_
+	box-shadow: 0px 0px 2px #000000;_x000D_
+	padding: 0.5em 0.6em;_x000D_
+}_x000D_
+.name-head-color {_x000D_
+	color: black;_x000D_
+}_x000D_
+.head-title {_x000D_
+	margin-left: -85px;_x000D_
+}_x000D_
+.bar-code-padding {_x000D_
+	margin-top: 20px;_x000D_
+	margin-left: 20px;_x000D_
+}_x000D_
+.top-buffer {_x000D_
+	margin-left:10px;_x000D_
+}_x000D_
+&lt;/style&gt;_x000D_
+&lt;/head&gt;_x000D_
+_x000D_
+&lt;body&gt;_x000D_
+&lt;table class="main-table"&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td&gt;&amp;nbsp;_x000D_
+&lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; R&amp;eacute;publique de Guin&amp;eacute;e &amp;nbsp;&amp;nbsp; &lt;/font&gt;_x000D_
+&lt;/label&gt;&lt;/td&gt;_x000D_
+&lt;td rowspan="4"&gt;_x000D_
+&lt;div&gt;_x000D_
+&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;_x000D_
+&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td rowspan="1"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;label class="name-head-color"&gt;&lt;b&gt;INU&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td rowspan="1"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;label class="name-head-color"&gt;&lt;b&gt;Nom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; _x000D_
+&lt;span class="name-color"&gt; $!lastName_fra&lt;/span&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td rowspan="1"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;label class="name-head-color"&gt;&lt;b&gt;Pr&amp;eacute;noms&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; _x000D_
+&lt;span class="name-color"&gt; $!firstName_fra&lt;/span&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td rowspan="1"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;label class="name-head-color"&gt;&lt;b&gt;Date de naissance&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;_x000D_
+&lt;span&gt;$!dateOfBirth&lt;/span&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td colspan="2"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;label class="name-head-color"&gt;&lt;b&gt;Genre&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt; _x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td colspan="3"&gt;_x000D_
+&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;_x000D_
+&lt;div class="col-md-2 top-buffer"&gt;_x000D_
+&lt;div class="block top-buffer"&gt;_x000D_
+&lt;table&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;td&gt;&lt;span&gt;$!addressLine1_fra; $!city_fra; $!postalCode $!province_fra; $!region_fra;&lt;/span&gt;&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;_x000D_
+&lt;table class="main-table" style="height: 300px"&gt;_x000D_
+&lt;tr&gt;_x000D_
+&lt;td&gt;_x000D_
+&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;_x000D_
+&lt;div class="col-md-6"&gt;_x000D_
+&lt;div class="bar-code-padding"&gt;&lt;/div&gt;_x000D_
+&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;td&gt;_x000D_
+&lt;div class="name-head-color col-md-6"&gt;_x000D_
+&lt;br&gt; Cette carte a &amp;eacute;t&amp;eacute; &amp;eacute;mise par WURI GUINEE_x000D_
+&lt;br&gt; Pour toute question; veuillez nous contacter au :_x000D_
+&lt;br&gt; &lt;b&gt;Email&amp;nbsp;:&amp;nbsp;&lt;/b&gt;contact@inu.gov.gn _x000D_
+&lt;br&gt; &lt;b&gt;T&amp;eacute;l&amp;eacute;phone&amp;nbsp;:&amp;nbsp;&lt;/b&gt;+224622227491_x000D_
+&lt;br&gt; &lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;R&amp;eacute;sidence Corail; Camayenne - Commune Dixinn; Conakry - Guin&amp;eacute;e_x000D_
+&lt;/div&gt;_x000D_
+&lt;/td&gt;_x000D_
+&lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/body&gt;_x000D_
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cher(e) $name;, Voici les détails de votre authentification avec l'INU $uin sur le périphérique déployé par les Services WURI:, - Type d'authentification : $authType , - Date et Heure : $date à  $time Hrs , - Statut : $status </t>
   </si>
 </sst>
 </file>
@@ -1868,11 +1721,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1883,7 +1738,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1975,11 +1830,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2011,6 +1877,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229855EC-EB4F-4B19-9CD6-EAB90768723A}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,7 +2212,7 @@
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" customWidth="1"/>
     <col min="9" max="9" width="24.109375" customWidth="1"/>
     <col min="10" max="10" width="21.77734375" customWidth="1"/>
   </cols>
@@ -2390,10 +2266,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2401,14 +2277,14 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>259</v>
+      <c r="G2" s="13" t="s">
+        <v>456</v>
       </c>
       <c r="H2" s="3">
         <v>10004</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>17</v>
@@ -2431,10 +2307,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -2442,14 +2318,14 @@
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>263</v>
+      <c r="G3" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="H3" s="3">
         <v>10004</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>20</v>
@@ -2472,10 +2348,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -2483,14 +2359,14 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>265</v>
+      <c r="G4" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="H4" s="3">
         <v>10004</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>21</v>
@@ -2505,7 +2381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1107</v>
       </c>
@@ -2513,10 +2389,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -2524,14 +2400,14 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>267</v>
+      <c r="G5" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="H5" s="3">
         <v>10003</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>75</v>
@@ -2554,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -2565,14 +2441,14 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>270</v>
+      <c r="G6" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="H6" s="3">
         <v>10003</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>76</v>
@@ -2595,10 +2471,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -2606,14 +2482,14 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>273</v>
+      <c r="G7" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="H7" s="3">
         <v>10003</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>77</v>
@@ -2636,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
@@ -2647,14 +2523,14 @@
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>275</v>
+      <c r="G8" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="H8" s="3">
         <v>10003</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>78</v>
@@ -2677,10 +2553,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -2688,14 +2564,14 @@
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>277</v>
+      <c r="G9" s="9" t="s">
+        <v>399</v>
       </c>
       <c r="H9" s="3">
         <v>10003</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>79</v>
@@ -2718,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -2729,14 +2605,14 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>279</v>
+      <c r="G10" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>10003</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>80</v>
@@ -2759,10 +2635,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -2770,14 +2646,14 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>281</v>
+      <c r="G11" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="H11" s="3">
         <v>10003</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>81</v>
@@ -2792,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1114</v>
       </c>
@@ -2800,10 +2676,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -2811,14 +2687,14 @@
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>283</v>
+      <c r="G12" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="H12" s="3">
         <v>10003</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>82</v>
@@ -2841,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -2852,14 +2728,14 @@
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>285</v>
+      <c r="G13" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="H13" s="3">
         <v>10002</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>52</v>
@@ -2882,10 +2758,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
@@ -2894,13 +2770,13 @@
         <v>15</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="H14" s="3">
         <v>10002</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>53</v>
@@ -2923,10 +2799,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -2934,14 +2810,14 @@
       <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>292</v>
+      <c r="G15" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="H15" s="3">
         <v>10002</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>54</v>
@@ -2964,10 +2840,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
@@ -2975,14 +2851,14 @@
       <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>295</v>
+      <c r="G16" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="H16" s="3">
         <v>10002</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>55</v>
@@ -3005,10 +2881,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>14</v>
@@ -3017,13 +2893,13 @@
         <v>15</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="H17" s="3">
         <v>10002</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>56</v>
@@ -3046,10 +2922,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
@@ -3057,14 +2933,14 @@
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>295</v>
+      <c r="G18" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="H18" s="3">
         <v>10002</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>57</v>
@@ -3079,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1121</v>
       </c>
@@ -3087,10 +2963,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -3098,14 +2974,14 @@
       <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>302</v>
+      <c r="G19" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="H19" s="3">
         <v>10002</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>58</v>
@@ -3128,10 +3004,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -3140,13 +3016,13 @@
         <v>15</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="H20" s="3">
         <v>10002</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>59</v>
@@ -3161,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1123</v>
       </c>
@@ -3169,10 +3045,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -3180,14 +3056,14 @@
       <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>306</v>
+      <c r="G21" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="H21" s="3">
         <v>10002</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>60</v>
@@ -3202,7 +3078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1124</v>
       </c>
@@ -3213,7 +3089,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -3221,14 +3097,14 @@
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>308</v>
+      <c r="G22" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="H22" s="3">
         <v>10001</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>37</v>
@@ -3243,7 +3119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1125</v>
       </c>
@@ -3254,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
@@ -3262,14 +3138,14 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>311</v>
+      <c r="G23" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="H23" s="3">
         <v>10001</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>39</v>
@@ -3295,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -3303,14 +3179,14 @@
       <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>313</v>
+      <c r="G24" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="H24" s="3">
         <v>10001</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>41</v>
@@ -3333,10 +3209,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
@@ -3345,13 +3221,13 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="H25" s="6">
         <v>10001</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>42</v>
@@ -3385,14 +3261,14 @@
       <c r="F26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>313</v>
+      <c r="G26" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>10001</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>25</v>
@@ -3407,7 +3283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1129</v>
       </c>
@@ -3415,10 +3291,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>14</v>
@@ -3426,14 +3302,14 @@
       <c r="F27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>317</v>
+      <c r="G27" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="H27" s="7">
         <v>10001</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>44</v>
@@ -3456,10 +3332,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -3468,13 +3344,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>10001</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>45</v>
@@ -3489,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1131</v>
       </c>
@@ -3497,10 +3373,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>83</v>
@@ -3508,14 +3384,14 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>321</v>
+      <c r="G29" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>10003</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>84</v>
@@ -3538,10 +3414,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -3549,14 +3425,14 @@
       <c r="F30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>323</v>
+      <c r="G30" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>10003</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>85</v>
@@ -3579,10 +3455,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -3590,14 +3466,14 @@
       <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>324</v>
+      <c r="G31" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="H31" s="7">
         <v>10003</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>86</v>
@@ -3620,10 +3496,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -3631,14 +3507,14 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>325</v>
+      <c r="G32" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>10003</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>87</v>
@@ -3661,10 +3537,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -3672,14 +3548,14 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>326</v>
+      <c r="G33" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="H33" s="7">
         <v>10003</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>88</v>
@@ -3694,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1136</v>
       </c>
@@ -3702,10 +3578,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -3713,17 +3589,17 @@
       <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>329</v>
+      <c r="G34" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="H34" s="7">
         <v>10005</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="K34" s="5" t="b">
         <v>1</v>
@@ -3735,7 +3611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1137</v>
       </c>
@@ -3743,10 +3619,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -3754,17 +3630,17 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>334</v>
+      <c r="G35" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="H35" s="7">
         <v>10005</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K35" s="5" t="b">
         <v>1</v>
@@ -3795,14 +3671,14 @@
       <c r="F36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>336</v>
+      <c r="G36" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="H36" s="7">
         <v>10001</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>28</v>
@@ -3837,13 +3713,13 @@
         <v>15</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="H37" s="7">
         <v>10001</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>30</v>
@@ -3858,7 +3734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>1144</v>
       </c>
@@ -3877,14 +3753,14 @@
       <c r="F38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>338</v>
+      <c r="G38" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="H38" s="3">
         <v>10001</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>31</v>
@@ -3907,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>27</v>
@@ -3919,13 +3795,13 @@
         <v>15</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="H39" s="3">
         <v>10002</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>28</v>
@@ -3960,13 +3836,13 @@
         <v>15</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="H40" s="3">
         <v>10002</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>30</v>
@@ -4001,13 +3877,13 @@
         <v>15</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="H41" s="3">
         <v>10002</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>31</v>
@@ -4042,13 +3918,13 @@
         <v>15</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="H42" s="3">
         <v>10004</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>28</v>
@@ -4083,13 +3959,13 @@
         <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="H43" s="3">
         <v>10004</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>30</v>
@@ -4124,13 +4000,13 @@
         <v>15</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="H44" s="3">
         <v>10004</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>31</v>
@@ -4153,23 +4029,23 @@
         <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="8" t="s">
-        <v>344</v>
+      <c r="G45" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H45" s="3">
         <v>10004</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>32</v>
@@ -4192,10 +4068,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
@@ -4204,13 +4080,13 @@
         <v>5</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="H46" s="3">
         <v>10004</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>33</v>
@@ -4233,10 +4109,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>14</v>
@@ -4244,14 +4120,14 @@
       <c r="F47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>344</v>
+      <c r="G47" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="H47" s="3">
         <v>10004</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>34</v>
@@ -4266,7 +4142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1154</v>
       </c>
@@ -4274,23 +4150,23 @@
         <v>13</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="8" t="s">
-        <v>349</v>
+      <c r="G48" s="13" t="s">
+        <v>450</v>
       </c>
       <c r="H48" s="3">
         <v>10001</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>47</v>
@@ -4313,10 +4189,10 @@
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>14</v>
@@ -4324,17 +4200,17 @@
       <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>352</v>
+      <c r="G49" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="H49" s="3">
         <v>10005</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="K49" s="5" t="b">
         <v>1</v>
@@ -4354,10 +4230,10 @@
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>14</v>
@@ -4365,17 +4241,17 @@
       <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>352</v>
+      <c r="G50" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="H50" s="3">
         <v>10005</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="K50" s="5" t="b">
         <v>1</v>
@@ -4395,10 +4271,10 @@
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>14</v>
@@ -4406,17 +4282,17 @@
       <c r="F51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>356</v>
+      <c r="G51" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="H51" s="3">
         <v>10005</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="K51" s="5" t="b">
         <v>1</v>
@@ -4436,10 +4312,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>14</v>
@@ -4447,17 +4323,17 @@
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>356</v>
+      <c r="G52" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="H52" s="3">
         <v>10005</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="K52" s="5" t="b">
         <v>1</v>
@@ -4469,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1159</v>
       </c>
@@ -4477,10 +4353,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>14</v>
@@ -4488,14 +4364,14 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>360</v>
+      <c r="G53" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="H53" s="3">
         <v>10001</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>48</v>
@@ -4518,10 +4394,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>14</v>
@@ -4529,14 +4405,14 @@
       <c r="F54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>362</v>
+      <c r="G54" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="H54" s="3">
         <v>10003</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>89</v>
@@ -4559,10 +4435,10 @@
         <v>13</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>14</v>
@@ -4571,13 +4447,13 @@
         <v>15</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="H55" s="3">
         <v>10003</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>90</v>
@@ -4592,7 +4468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>1162</v>
       </c>
@@ -4600,10 +4476,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>14</v>
@@ -4611,14 +4487,14 @@
       <c r="F56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>366</v>
+      <c r="G56" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="H56" s="3">
         <v>10003</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>91</v>
@@ -4641,10 +4517,10 @@
         <v>13</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>14</v>
@@ -4652,8 +4528,8 @@
       <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>368</v>
+      <c r="G57" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="H57" s="3">
         <v>10006</v>
@@ -4682,10 +4558,10 @@
         <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -4693,8 +4569,8 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>368</v>
+      <c r="G58" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="H58" s="3">
         <v>10006</v>
@@ -4723,10 +4599,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -4735,7 +4611,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="H59" s="3">
         <v>10006</v>
@@ -4764,10 +4640,10 @@
         <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -4775,8 +4651,8 @@
       <c r="F60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>375</v>
+      <c r="G60" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="H60" s="3">
         <v>10006</v>
@@ -4797,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>1167</v>
       </c>
@@ -4805,10 +4681,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -4817,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>377</v>
+        <v>293</v>
       </c>
       <c r="H61" s="3">
         <v>10006</v>
@@ -4846,10 +4722,10 @@
         <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>14</v>
@@ -4857,8 +4733,8 @@
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>379</v>
+      <c r="G62" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="H62" s="3">
         <v>10006</v>
@@ -4887,10 +4763,10 @@
         <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>14</v>
@@ -4898,8 +4774,8 @@
       <c r="F63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>381</v>
+      <c r="G63" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="H63" s="3">
         <v>10006</v>
@@ -4928,10 +4804,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>14</v>
@@ -4940,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H64" s="3">
         <v>10006</v>
@@ -4961,7 +4837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>1171</v>
       </c>
@@ -4969,10 +4845,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>14</v>
@@ -4980,8 +4856,8 @@
       <c r="F65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>381</v>
+      <c r="G65" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="H65" s="3">
         <v>10006</v>
@@ -5010,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>14</v>
@@ -5021,8 +4897,8 @@
       <c r="F66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>386</v>
+      <c r="G66" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="H66" s="3">
         <v>10006</v>
@@ -5051,10 +4927,10 @@
         <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>14</v>
@@ -5063,7 +4939,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="H67" s="3">
         <v>10006</v>
@@ -5092,10 +4968,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>14</v>
@@ -5103,8 +4979,8 @@
       <c r="F68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>386</v>
+      <c r="G68" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="H68" s="3">
         <v>10006</v>
@@ -5133,10 +5009,10 @@
         <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
@@ -5144,8 +5020,8 @@
       <c r="F69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>391</v>
+      <c r="G69" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="H69" s="3">
         <v>10006</v>
@@ -5166,7 +5042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>1176</v>
       </c>
@@ -5174,10 +5050,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>392</v>
+        <v>301</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
@@ -5186,7 +5062,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="H70" s="3">
         <v>10006</v>
@@ -5215,10 +5091,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>14</v>
@@ -5226,8 +5102,8 @@
       <c r="F71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>391</v>
+      <c r="G71" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="H71" s="3">
         <v>10006</v>
@@ -5256,10 +5132,10 @@
         <v>13</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>14</v>
@@ -5267,8 +5143,8 @@
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>396</v>
+      <c r="G72" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="H72" s="3">
         <v>10006</v>
@@ -5289,7 +5165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>1179</v>
       </c>
@@ -5297,10 +5173,10 @@
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
@@ -5309,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="H73" s="3">
         <v>10006</v>
@@ -5338,10 +5214,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>14</v>
@@ -5349,8 +5225,8 @@
       <c r="F74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>396</v>
+      <c r="G74" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="H74" s="3">
         <v>10006</v>
@@ -5371,7 +5247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>1181</v>
       </c>
@@ -5379,10 +5255,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>14</v>
@@ -5391,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="H75" s="3">
         <v>10006</v>
@@ -5420,10 +5296,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>14</v>
@@ -5432,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="H76" s="3">
         <v>10006</v>
@@ -5461,10 +5337,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>14</v>
@@ -5472,8 +5348,8 @@
       <c r="F77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>401</v>
+      <c r="G77" s="9" t="s">
+        <v>435</v>
       </c>
       <c r="H77" s="3">
         <v>10006</v>
@@ -5502,10 +5378,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>14</v>
@@ -5513,8 +5389,8 @@
       <c r="F78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>406</v>
+      <c r="G78" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="H78" s="3">
         <v>10006</v>
@@ -5543,10 +5419,10 @@
         <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
@@ -5555,7 +5431,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="H79" s="3">
         <v>10006</v>
@@ -5584,10 +5460,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>14</v>
@@ -5595,8 +5471,8 @@
       <c r="F80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>406</v>
+      <c r="G80" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="H80" s="3">
         <v>10006</v>
@@ -5625,10 +5501,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>14</v>
@@ -5636,8 +5512,8 @@
       <c r="F81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>411</v>
+      <c r="G81" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="H81" s="3">
         <v>10006</v>
@@ -5666,10 +5542,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>14</v>
@@ -5678,7 +5554,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="H82" s="3">
         <v>10006</v>
@@ -5699,7 +5575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>1189</v>
       </c>
@@ -5707,10 +5583,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>14</v>
@@ -5718,8 +5594,8 @@
       <c r="F83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>415</v>
+      <c r="G83" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="H83" s="3">
         <v>10006</v>
@@ -5748,10 +5624,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>14</v>
@@ -5759,8 +5635,8 @@
       <c r="F84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="8" t="s">
-        <v>417</v>
+      <c r="G84" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="H84" s="3">
         <v>10006</v>
@@ -5789,10 +5665,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>14</v>
@@ -5801,7 +5677,7 @@
         <v>15</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="H85" s="3">
         <v>10006</v>
@@ -5830,10 +5706,10 @@
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>14</v>
@@ -5841,8 +5717,8 @@
       <c r="F86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>417</v>
+      <c r="G86" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="H86" s="3">
         <v>10006</v>
@@ -5871,10 +5747,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>14</v>
@@ -5882,8 +5758,8 @@
       <c r="F87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="8" t="s">
-        <v>422</v>
+      <c r="G87" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="H87" s="3">
         <v>10006</v>
@@ -5912,10 +5788,10 @@
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>14</v>
@@ -5924,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="H88" s="3">
         <v>10006</v>
@@ -5953,10 +5829,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>14</v>
@@ -5964,8 +5840,8 @@
       <c r="F89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="8" t="s">
-        <v>422</v>
+      <c r="G89" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="H89" s="3">
         <v>10006</v>
@@ -5994,10 +5870,10 @@
         <v>13</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>14</v>
@@ -6005,8 +5881,8 @@
       <c r="F90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="8" t="s">
-        <v>427</v>
+      <c r="G90" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="H90" s="3">
         <v>10006</v>
@@ -6035,10 +5911,10 @@
         <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>14</v>
@@ -6047,7 +5923,7 @@
         <v>15</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="H91" s="3">
         <v>10006</v>
@@ -6076,10 +5952,10 @@
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>14</v>
@@ -6087,8 +5963,8 @@
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>431</v>
+      <c r="G92" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="H92" s="3">
         <v>10006</v>
@@ -6117,10 +5993,10 @@
         <v>13</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>14</v>
@@ -6128,8 +6004,8 @@
       <c r="F93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>433</v>
+      <c r="G93" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="H93" s="3">
         <v>10006</v>
@@ -6158,10 +6034,10 @@
         <v>13</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>14</v>
@@ -6170,7 +6046,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="H94" s="3">
         <v>10006</v>
@@ -6199,10 +6075,10 @@
         <v>13</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>14</v>
@@ -6210,8 +6086,8 @@
       <c r="F95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>437</v>
+      <c r="G95" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="H95" s="3">
         <v>10006</v>
@@ -6240,10 +6116,10 @@
         <v>13</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>14</v>
@@ -6251,8 +6127,8 @@
       <c r="F96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>439</v>
+      <c r="G96" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="H96" s="3">
         <v>10006</v>
@@ -6281,10 +6157,10 @@
         <v>13</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
@@ -6293,7 +6169,7 @@
         <v>15</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="H97" s="3">
         <v>10006</v>
@@ -6322,10 +6198,10 @@
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>442</v>
+        <v>325</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>442</v>
+        <v>325</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>14</v>
@@ -6333,8 +6209,8 @@
       <c r="F98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>439</v>
+      <c r="G98" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="H98" s="3">
         <v>10006</v>
@@ -6363,10 +6239,10 @@
         <v>13</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
@@ -6374,8 +6250,8 @@
       <c r="F99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>444</v>
+      <c r="G99" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="H99" s="3">
         <v>10006</v>
@@ -6404,10 +6280,10 @@
         <v>13</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>14</v>
@@ -6416,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="H100" s="3">
         <v>10006</v>
@@ -6445,10 +6321,10 @@
         <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>14</v>
@@ -6456,8 +6332,8 @@
       <c r="F101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>444</v>
+      <c r="G101" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="H101" s="3">
         <v>10006</v>
@@ -6486,10 +6362,10 @@
         <v>13</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>14</v>
@@ -6497,8 +6373,8 @@
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="8" t="s">
-        <v>449</v>
+      <c r="G102" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="H102" s="3">
         <v>10006</v>
@@ -6527,10 +6403,10 @@
         <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>14</v>
@@ -6539,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="H103" s="3">
         <v>10006</v>
@@ -6568,10 +6444,10 @@
         <v>13</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>14</v>
@@ -6579,8 +6455,8 @@
       <c r="F104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>449</v>
+      <c r="G104" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="H104" s="3">
         <v>10006</v>
@@ -6621,7 +6497,7 @@
         <v>15</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H105" s="3">
         <v>10003</v>
@@ -6662,7 +6538,7 @@
         <v>15</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H106" s="3">
         <v>10003</v>
@@ -6703,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H107" s="3">
         <v>10003</v>
@@ -6744,7 +6620,7 @@
         <v>15</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H108" s="3">
         <v>10003</v>
@@ -6785,7 +6661,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H109" s="3">
         <v>10003</v>
@@ -6826,7 +6702,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H110" s="3">
         <v>10003</v>
@@ -6867,7 +6743,7 @@
         <v>15</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H111" s="3">
         <v>10003</v>
@@ -6908,7 +6784,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H112" s="3">
         <v>10003</v>
@@ -6949,7 +6825,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H113" s="3">
         <v>10003</v>
@@ -6990,7 +6866,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H114" s="3">
         <v>10003</v>
@@ -7031,7 +6907,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H115" s="3">
         <v>10003</v>
@@ -7072,7 +6948,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H116" s="3">
         <v>10003</v>
@@ -7113,7 +6989,7 @@
         <v>15</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H117" s="3">
         <v>10003</v>
@@ -7154,7 +7030,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H118" s="3">
         <v>10003</v>
@@ -7195,7 +7071,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H119" s="3">
         <v>10003</v>
@@ -7236,7 +7112,7 @@
         <v>15</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H120" s="3">
         <v>10003</v>
@@ -7277,7 +7153,7 @@
         <v>15</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H121" s="3">
         <v>10003</v>
@@ -7318,7 +7194,7 @@
         <v>15</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H122" s="3">
         <v>10003</v>
@@ -7359,7 +7235,7 @@
         <v>15</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H123" s="3">
         <v>10003</v>
@@ -7400,7 +7276,7 @@
         <v>15</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H124" s="3">
         <v>10003</v>
@@ -7441,7 +7317,7 @@
         <v>15</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H125" s="3">
         <v>10003</v>
@@ -7482,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H126" s="3">
         <v>10006</v>
@@ -7523,7 +7399,7 @@
         <v>15</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H127" s="3">
         <v>10006</v>
@@ -7564,7 +7440,7 @@
         <v>15</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H128" s="3">
         <v>10006</v>
@@ -7605,7 +7481,7 @@
         <v>15</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H129" s="3">
         <v>10006</v>
@@ -7687,7 +7563,7 @@
         <v>15</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H131" s="3">
         <v>10006</v>
@@ -7728,7 +7604,7 @@
         <v>15</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H132" s="3">
         <v>10006</v>
@@ -7769,7 +7645,7 @@
         <v>15</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H133" s="3">
         <v>10006</v>
@@ -7810,7 +7686,7 @@
         <v>15</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H134" s="3">
         <v>10006</v>
@@ -7851,7 +7727,7 @@
         <v>15</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H135" s="3">
         <v>10006</v>
@@ -7892,7 +7768,7 @@
         <v>15</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H136" s="3">
         <v>10006</v>
@@ -7933,7 +7809,7 @@
         <v>15</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H137" s="3">
         <v>10006</v>
@@ -7973,8 +7849,8 @@
       <c r="F138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G138" s="8" t="s">
-        <v>453</v>
+      <c r="G138" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="H138" s="3">
         <v>10002</v>
@@ -8014,8 +7890,8 @@
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G139" s="8" t="s">
-        <v>454</v>
+      <c r="G139" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="H139" s="3">
         <v>10002</v>
@@ -8055,7 +7931,7 @@
       <c r="F140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G140" s="8" t="s">
+      <c r="G140" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H140" s="3">
@@ -8096,8 +7972,8 @@
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G141" s="8" t="s">
-        <v>228</v>
+      <c r="G141" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="H141" s="3">
         <v>10002</v>
@@ -8137,8 +8013,8 @@
       <c r="F142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="8" t="s">
-        <v>241</v>
+      <c r="G142" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="H142" s="3">
         <v>10003</v>
@@ -8159,7 +8035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>1273</v>
       </c>
@@ -8178,7 +8054,9 @@
       <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="8"/>
+      <c r="G143" s="15" t="s">
+        <v>453</v>
+      </c>
       <c r="H143" s="3">
         <v>10003</v>
       </c>
@@ -8218,7 +8096,7 @@
         <v>15</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H144" s="3">
         <v>10003</v>
@@ -8259,7 +8137,7 @@
         <v>15</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H145" s="3">
         <v>10003</v>
@@ -8300,7 +8178,7 @@
         <v>15</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H146" s="3">
         <v>10003</v>
@@ -8341,7 +8219,7 @@
         <v>15</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H147" s="3">
         <v>10003</v>
@@ -8382,7 +8260,7 @@
         <v>15</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H148" s="3">
         <v>10003</v>
@@ -8423,7 +8301,7 @@
         <v>15</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H149" s="3">
         <v>10003</v>
@@ -8464,7 +8342,7 @@
         <v>15</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H150" s="3">
         <v>10003</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4E00DE-273D-4257-B62B-33F6614D872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB89A6D-4B62-4950-846D-147A6B86194B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{97B49F44-EFC3-4106-8AD9-48CD17FA86FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="462">
   <si>
     <t>id</t>
   </si>
@@ -879,12 +879,6 @@
     <t>Demande d'historique d'authentification</t>
   </si>
   <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;} .bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt; &lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; #if ( !$isPreview &amp;&amp; $QRCodeSource ) &lt;td class=bottom&gt; &lt;img src=${QRCodeSource} width=85 height=85/&gt; &lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt;#if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt; &lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt; &lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt;#if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br/&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt;&lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt;$biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; &lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("LeftEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end #if( $isPreview &amp;&amp; $biometrics.get($key).get("CapturedLeftEye") )&lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt;#if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("RightEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftLittle&gt;$biometrics.get($key).get("leftLittle")&lt;/h5&gt; &lt;h5 class=leftRing&gt;$biometrics.get($key).get("leftRing")&lt;/h5&gt; &lt;h5 class=leftMiddle&gt;$biometrics.get($key).get("leftMiddle")&lt;/h5&gt; &lt;h5 class=leftIndex&gt;$biometrics.get($key).get("leftIndex")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=rightIndex&gt;$biometrics.get($key).get("rightIndex")&lt;/h5&gt; &lt;h5 class=rightMiddle&gt;$biometrics.get($key).get("rightMiddle")&lt;/h5&gt; &lt;h5 class=rightRing&gt;$biometrics.get($key).get("rightRing")&lt;/h5&gt; &lt;h5 class=rightLittle&gt;$biometrics.get($key).get("rightLittle")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftThumb&gt;$biometrics.get($key).get("leftThumb")&lt;/h5&gt; &lt;h5 class=rightThumb&gt;$biometrics.get($key).get("rightThumb")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt;&lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;div&gt; &lt;table class=dataTable&gt; &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;${RONameLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;&lt;/td&gt; &lt;td&gt; &lt;p class=headings&gt;${RegCenterLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;hr/&gt; &lt;br/&gt; &lt;/div&gt;&lt;div&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt; &lt;ul&gt; #foreach( $line in $Guidelines ) &lt;li&gt;&lt;span&gt;${line}&lt;/span&gt;&lt;/li&gt; #end &lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt;&lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt;&lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
-  </si>
-  <si>
     <t>Pré-inscription</t>
   </si>
   <si>
@@ -1215,54 +1209,18 @@
     <t>Modèle pour SMS denregistrement de mise à  jour</t>
   </si>
   <si>
-    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491</t>
-  </si>
-  <si>
     <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué à  cause d'un incident technique. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.Merci</t>
   </si>
   <si>
     <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué à  cause d'un incident technique. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491.</t>
   </si>
   <si>
-    <t>Cher(e) $!name_fra;, Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. , Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.Merci</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;, Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. , Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_, Les informations de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour. _x000D_, Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU._x000D_, Merci</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_, Les infos de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour. _x000D_, Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU._x000D_, Merci</t>
-  </si>
-  <si>
     <t>Cher(e) $name;_x000D_, Merci de vous être inscrit sur la plateforme d'identification numérique WURI GUINEE. Votre numéro d'enregistrement est $RegistrationID. _x000D_, Si des corrections doivent être apportées à  vos données; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
   </si>
   <si>
-    <t>Cher(e) $name;_x000D_, Merci de vous être inscrit sur la plateforme d'identification numérique WURI GUINEE. Votre numéro d'enregistrement est $RegistrationID. _x000D_, Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_, L'OTP pour l'utilisateur $username est $otp. Il est valide pour $validTime minutes._x000D_, Il a été généré le $date à  $heure hrs.</t>
-  </si>
-  <si>
     <t>Cher(e) $name;_x000D_, Merci de mettre à  jour vos coordonnées sur la plateforme d’identité numérique WURI GUINEE.Votre identifiant d'enregistrement est $RegistrationID. _x000D_, Si des corrections doivent être apportées à  vos données; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
   </si>
   <si>
-    <t>Cher(e) $name;_x000D_, Merci de mettre à  jour vos coordonnées sur la plateforme d’identification numérique WURI GUINEE. Votre identifiant d'enregistrement est $RegistrationID. _x000D_, Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
-  </si>
-  <si>
-    <t>Cher(e) $name; , votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès., Votre numéro de pré-enregistrement est $PRID., Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime., vous recevrez également les détails sur votre numéro de téléphone</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;, Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numéro de pre-enregistrement : $PRID, Il a été généré le $date à  $heure hrs.</t>
-  </si>
-  <si>
-    <t>Cher(e) $name;_x000D_, Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numéro de pre-enregistrement : $PRID_x000D_, Il a été généré le $date à  $heure hrs.</t>
-  </si>
-  <si>
-    <t>Cher(e) $name; _x000D_, votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès._x000D_, Votre numéro de pré-enregistrement est $PRID._x000D_, Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime._x000D_, vous recevrez également les détails sur votre adresse email</t>
-  </si>
-  <si>
     <t>Cher(e) $!name_fra;_x000D_, Votre INU a été désactivé.Si vous souhaitez le réactiver; veuillez nous contacter au incident@inu.gov.gn ou +224622227491.</t>
   </si>
   <si>
@@ -1275,103 +1233,19 @@
     <t>Cher $!name_fra;_x000D_, Votre INU a été réactivé.Pour toute question; veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
   </si>
   <si>
-    <t>Cher(e) ${ResidentName};, Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE. , Votre identifiant d''inscription est "${RID}". , Vos détails démographiques sont :, 1.Date d'enregistrement:${Date}, 2.Nom et Prénoms:${name}, 3.Date de naissance:${DOB}, 4.Genre:${Gender}, 5.Adresse :${AddressLine1}, 6.Ville:${City}, 7.code postal - Province: ${PostalCode} - ${Province}, 8.Région:${Region}, 9.Téléphone:${Mobile}, 10.Email:${Email}</t>
-  </si>
-  <si>
-    <t>Cher(e) ${ResidentName};_x000D_, Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE. _x000D_, Votre identifiant d''inscription est "${RID}". _x000D_, Vos détails démographiques sont :_x000D_, 1.Date d'enregistrement:${Date}_x000D_, 2.Nom et Prénoms:${name}_x000D_, 3.Date de naissance:${DOB}_x000D_, 4.Genre:${Gender}_x000D_, 5.Adresse :${AddressLine1}_x000D_, 6.Ville:${City}_x000D_, 7.code postal - Province: ${PostalCode} - ${Province}_x000D_, 8.Région:${Region}_x000D_, 9.Numéro de portable:${Mobile}_x000D_, 10.Email:${Email}</t>
-  </si>
-  <si>
-    <t>Monsieur/Madame;, Votre mot de passe à  usage unique $otp. Sa durée de validité est de 3 minutes., , Cordialement;, L'Équipe WURI Guinée</t>
-  </si>
-  <si>
-    <t>Monsieur/Madame;, Veuillez trouver ci-joint votre mot de passe à  usage unique $otp. Ce code vous permettra l’accès à  nos services d'enrôlement. Sa durée de validité est de 3 minutes., , Cordialement;, L'Équipe WURI Guinée</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_, Veuilez trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_, Merci de trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
-  </si>
-  <si>
     <t>Cher(e) $name;_x000D_, Votre mot de passe OTP est $otp. Il correspond au INU $uin. Attention; il est valide pour $validTime minutes_x000D_, Il a été généré le $date à  $time Hrs; Merci</t>
   </si>
   <si>
-    <t>Cher(e) ${ResidentName}; _x000D_, Veuillez mettre à  jour vos coordonnées sur la plateforme d’identification WURI. Votre identifiant d'inscription est "${RID}".</t>
-  </si>
-  <si>
-    <t>Cher(e) Client(e); _x000D_, Nous accusons réception de votre requête sur la perte de votre INU . Votre numéro d'enregistrement pour cette demande est "${RID}".</t>
-  </si>
-  <si>
-    <t>Bonjour $firstName $lastName; _x000D_, Votre rendez-vous prévu le $Appointmentdate à  $Appointmenttime pour l'obtention de votre INU (référence $PRID) a été annulé. _x000D_, Nous vous invitons à  prendre un nouveau rendez-vous si besoin à  l'adresse suivante: http://inu.gov.gn _x000D_, _x000D_, Cordialement; _x000D_, L'Équipe WURI Guinée</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_, Votre carte INU a été retrouvée. Pour la récuperer; veuillez nous contacter au inu@inu.gov.gn ou +224622227491</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_, veuillez nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande d'historique d'authentification a été traitée avec succès._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès._x000D_, Merci</t>
-  </si>
-  <si>
     <t>Cher(e) $name_fra;_x000D_, Le ou les types AUTH que vous avez demandés ont été verrouillés avec succès._x000D_, Merci!</t>
   </si>
   <si>
-    <t>Cher(e) $name_fra;_x000D_, Le ou les types AUTH demandés ont été déverrouillés avec succès._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre identifiant virtuel VID a été généré avec succès. Votre numéro VID est $VID._x000D_, Vous pouvez l'utiliser à  la place de votre INU._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre identifiant virtuel VID de numéro $VID a été révoqué avec succès._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de Réimpression d'INU a été traitée avec succès. Votre numéro de demande est $RID._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de récupération des détails de votre historique d'authentification a échoué._x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de téléchargement du e-INU a échoué. Veuillez réessayer ultérieurement._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de téléchargement du e-INU a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre ou vos types de verrouillage AUTH demandés ont échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
     <t>Cher(e) $name_fra;_x000D_, Votre demande de réimpression de la carte INU a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
   </si>
   <si>
     <t>Bonjour $fullName_fra;_x000D_, Votre demande de déverrouillage de type (s) AUTH a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
   </si>
   <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de déverrouillage de type (s) AUTH a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, La génération de votre identifiant virtuel VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, La génération de votre identifiant virtuel $VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, La révocation de votre identifiant virtual $VID a échoué. _x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $name_fra;_x000D_, Votre demande de mise à  jour du INU a été traitée avec succès. _x000D_, Pour toute question; votre numéro de demande est $RID._x000D_, Merci!</t>
-  </si>
-  <si>
     <t>Cher(e) $name_fra;_x000D_, Nous n'avons pas pu traiter votre demande de mise à  jour INU. Nous nous en excusons._x000D_, Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491._x000D_, Merci!</t>
-  </si>
-  <si>
-    <t>Cher(e) $!name_fra;_x000D_, Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté. _x000D_, Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491._x000D_, Merci</t>
   </si>
   <si>
     <t>Cher(e) $name; veuillez apporter les documents suivants si vous en avez
@@ -1682,7 +1556,148 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Cher(e) $name;, Voici les détails de votre authentification avec l'INU $uin sur le périphérique déployé par les Services WURI:, - Type d'authentification : $authType , - Date et Heure : $date à  $time Hrs , - Statut : $status </t>
+    <t>Cher(e) $name;, Votre OTP est $otp. Il est valide pour $validTime minutes. Il correspond au numéro de pre-enregistrement : $PRID, Il a été généré le $date à  $time hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;_x000D_, L'OTP pour l'utilisateur $username est $otp. Il est valide pour $validTime minutes._x000D_, Il a été généré le $date à  $time hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès., Votre numéro de pré-enregistrement est $PRID. Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime. vous recevrez également les détails sur votre numéro de téléphone</t>
+  </si>
+  <si>
+    <t>Cher(e) $lastName; Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $lastName; Votre INU avec le numéro d’enregistrement: $!RID a été généré avec succès. Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; Les infos de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour. Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU. Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; Les informations de votre INU correspondant au numéro d’enregistrement: $!RID ont été mises à  jour.  Veuillez nous contacter au : inu@inu.gov.gn ou +224622227491 pour récupérer votre nouvelle carte INU. Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; L'OTP pour l'utilisateur $username est $otp. Il est valide pour $validTime minutes. Il a été généré le $date à  $time hrs.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name;  votre pré-enregistrement pour l'obtention d'INU effectuée le sur $Date à  $Time est terminée avec succès. Votre numéro de pré-enregistrement est $PRID. Votre rendez-vous d'enregistrement est prévu le $Appointmentdate à  $Appointmenttime. vous recevrez également les détails sur votre adresse email</t>
+  </si>
+  <si>
+    <t>Monsieur/Madame;, Veuillez trouver ci-joint votre mot de passe à  usage unique $otp. Ce code vous permettra l’accès à  nos services d'enrôlement. Sa durée de validité est de 3 minutes. Cordialement; L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e);  Merci de trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cher(e) $name; Voici les détails de votre authentification avec l'INU $uin sur le périphérique déployé par les Services WURI: - Type d'authentification : $authType  - Date et Heure: $date à  $time Hrs  - Statut: $status </t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté.  Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491. Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; Votre demande d'INU avec le numéro d'enregistrement: $!RID a échoué car un doublon a été détecté.  Veuillez nous contacter au : incident@inu.gov.gn ou +224622227491</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; Merci de vous être inscrit sur la plateforme d'identification numérique WURI GUINEE. Votre numéro d'enregistrement est $RegistrationID.  Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) $name; Merci de mettre à  jour vos coordonnées sur la plateforme d’identification numérique WURI GUINEE. Votre identifiant d'enregistrement est $RegistrationID.  Si des corrections sont nécessaires; veuillez nous contacter au : enregistrement@inu.gov.gn ou +224622227491.</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName}; Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE. Votre identifiant d''inscription est "${RID}".  Vos détails démographiques sont : 1.Date d'enregistrement:${Date} 2.Nom et Prénoms:${name} 3.Date de naissance:${DOB} 4.Genre:${Gender} 5.Adresse :${AddressLine1} 6.Ville:${City} 7.code postal - Province: ${PostalCode} - ${Province} 8.Région:${Region}, 9.Téléphone:${Mobile} 10.Email:${Email}</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName}; Merci de vous être inscrit sur la plateforme d’identité numérique WURI GUINEE.  Votre identifiant d''inscription est "${RID}". Vos détails démographiques sont : 1.Date d'enregistrement:${Date} 2.Nom et Prénoms:${name} 3.Date de naissance:${DOB} 4.Genre:${Gender} 5.Adresse :${AddressLine1} 6.Ville:${City} 7.code postal - Province: ${PostalCode} - ${Province} 8.Région:${Region} 9.Numéro de portable:${Mobile} 10.Email:${Email}</t>
+  </si>
+  <si>
+    <t>Monsieur/Madame; Votre mot de passe à  usage unique $otp. Sa durée de validité est de 3 minutes. Cordialement; L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e); Veuilez trouver votre mot de passe temporaire $otp. Attention il expire dans 3 minutes.</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e);  Nous accusons réception de votre requête sur la perte de votre INU . Votre numéro d'enregistrement pour cette demande est "${RID}".</t>
+  </si>
+  <si>
+    <t>Cher(e) Client(e)  Nous accusons réception de votre requête sur la perte de votre INU . Votre numéro d'enregistrement pour cette demande est "${RID}".</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName}; Veuillez mettre à  jour vos coordonnées sur la plateforme d’identification WURI. Votre identifiant d'inscription est "${RID}".</t>
+  </si>
+  <si>
+    <t>Cher(e) ${ResidentName};  Veuillez mettre à  jour vos coordonnées sur la plateforme d’identification WURI. Votre identifiant d'inscription est "${RID}".</t>
+  </si>
+  <si>
+    <t>Bonjour $firstName $lastName;  Votre rendez-vous prévu le $Appointmentdate à  $Appointmenttime pour l'obtention de votre INU (référence $PRID) a été annulé.  Nous vous invitons à  prendre un nouveau rendez-vous si besoin à  l'adresse suivante: http://inu.gov.gn. Cordialement;  L'Équipe WURI Guinée</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; Votre carte INU a été retrouvée. Pour la récuperer; veuillez nous contacter au inu@inu.gov.gn ou +224622227491</t>
+  </si>
+  <si>
+    <t>Cher(e) $!name_fra; veuillez nous contacter au incident@inu.gov.gn ou +224622227491. Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande d'historique d'authentification a été traitée avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Félicitations; la demande de téléchargement de votre e-INU a été effectuée avec succès. Merci</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Le ou les types AUTH que vous avez demandés ont été verrouillés avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Le ou les types AUTH demandés ont été déverrouillés avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre identifiant virtuel VID a été généré avec succès. Votre numéro VID est $VID. Vous pouvez l'utiliser à  la place de votre INU. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre identifiant virtuel VID de numéro $VID a été révoqué avec succès. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de Réimpression d'INU a été traitée avec succès. Votre numéro de demande est $RID. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de récupération des détails de votre historique d'authentification a échoué. Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de téléchargement du e-INU a échoué. Veuillez réessayer ultérieurement. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de téléchargement du e-INU a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre ou vos types de verrouillage AUTH demandés ont échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de réimpression de la carte INU a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de déverrouillage de type (s) AUTH a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; La génération de votre identifiant virtuel VID a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; La génération de votre identifiant virtuel $VID a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; La révocation de votre identifiant virtual $VID a échoué.  Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Votre demande de mise à  jour du INU a été traitée avec succès.  Pour toute question; votre numéro de demande est $RID. Merci!</t>
+  </si>
+  <si>
+    <t>Cher(e) $name_fra; Nous n'avons pas pu traiter votre demande de mise à  jour INU. Nous nous en excusons. Veuillez réessayer ultérieurement ou nous contacter au incident@inu.gov.gn ou +224622227491. Merci!</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;} .bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt; &lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; #if ( !$isPreview &amp;&amp; $QRCodeSource ) &lt;td class=bottom&gt; &lt;img src=${QRCodeSource} width=85 height=85/&gt; &lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt;#if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt; &lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt; &lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt;#if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt;&lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt;$biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; &lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("LeftEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end #if( $isPreview &amp;&amp; $biometrics.get($key).get("CapturedLeftEye") )&lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt;#if( !$isPreview ) &lt;div class=biometrics&gt; &lt;h5 class=parentIris1&gt;$biometrics.get($key).get("RightEye")&lt;/h5&gt; &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; &lt;/div&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftLittle&gt;$biometrics.get($key).get("leftLittle")&lt;/h5&gt; &lt;h5 class=leftRing&gt;$biometrics.get($key).get("leftRing")&lt;/h5&gt; &lt;h5 class=leftMiddle&gt;$biometrics.get($key).get("leftMiddle")&lt;/h5&gt; &lt;h5 class=leftIndex&gt;$biometrics.get($key).get("leftIndex")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=rightIndex&gt;$biometrics.get($key).get("rightIndex")&lt;/h5&gt; &lt;h5 class=rightMiddle&gt;$biometrics.get($key).get("rightMiddle")&lt;/h5&gt; &lt;h5 class=rightRing&gt;$biometrics.get($key).get("rightRing")&lt;/h5&gt; &lt;h5 class=rightLittle&gt;$biometrics.get($key).get("rightLittle")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style=text-align:-webkit-center&gt; #if( !$isPreview ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;div class=biometrics&gt; &lt;h5 class=leftThumb&gt;$biometrics.get($key).get("leftThumb")&lt;/h5&gt; &lt;h5 class=rightThumb&gt;$biometrics.get($key).get("rightThumb")&lt;/h5&gt; &lt;/div&gt; &lt;/td&gt;&lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt;&lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;div&gt; &lt;table class=dataTable&gt; &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;${RONameLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;&lt;/td&gt; &lt;td&gt; &lt;p class=headings&gt;${RegCenterLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;hr/&gt; &lt;br/&gt; &lt;/div&gt;&lt;div&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt; &lt;ul&gt; #foreach( $line in $Guidelines ) &lt;li&gt;&lt;span&gt;${line}&lt;/span&gt;&lt;/li&gt; #end &lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("firstName") ) &lt;th&gt;$demographics.get("firstName").get("label")&lt;/th&gt; #end #if( $demographics.get("lastName") ) &lt;th&gt;$demographics.get("lastName").get("label")&lt;/th&gt; #end #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("firstName") ) &lt;td&gt;$demographics.get("firstName").get("value")&lt;/td&gt; #end #if( $demographics.get("lastName") ) &lt;td&gt;$demographics.get("lastName").get("value")&lt;/td&gt; #end #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt;&lt;table&gt; &lt;hr/&gt;&lt;h1 class="headings"&gt;Adresse&lt;/h1&gt; &lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;th&gt;$demographics.get("additionalAddresDetails").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("additionalAddresDetails") ) &lt;td&gt;$demographics.get("additionalAddresDetails").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("prefecture") ) &lt;th&gt;$demographics.get("prefecture").get("label")&lt;/th&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;th&gt;$demographics.get("subPrefectureOrCommune").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("prefecture") ) &lt;td&gt;$demographics.get("prefecture").get("value")&lt;/td&gt; #end #if( $demographics.get("subPrefectureOrCommune") ) &lt;td&gt;$demographics.get("subPrefectureOrCommune").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;th&gt;$demographics.get("district").get("label")&lt;/th&gt; #end #if( $demographics.get("sector") ) &lt;th&gt;$demographics.get("sector").get("label")&lt;/th&gt; #end #if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("district") ) &lt;td&gt;$demographics.get("district").get("value")&lt;/td&gt; #end #if( $demographics.get("sector") ) &lt;td&gt;$demographics.get("sector").get("value")&lt;/td&gt; #end #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("introducerFirstName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Détails de l'introducteur&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("introducerFirstName").get("label")&lt;/th&gt;&lt;th&gt;$demographics.get("introducerLastName").get("label")&lt;/th&gt; #if( $demographics.get("introducerRID") ) &lt;th&gt;$demographics.get("introducerRID").get("label")&lt;/th&gt; #end #if( $demographics.get("introducerUIN") ) &lt;th&gt;$demographics.get("introducerUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("introducerFirstName").get("value")&lt;/td&gt;&lt;td&gt;$demographics.get("introducerLastName").get("value")&lt;/td&gt; #if( $demographics.get("introducerRID") ) &lt;td&gt;$demographics.get("introducerRID").get("value")&lt;/td&gt; #end #if( $demographics.get("introducerUIN") ) &lt;td&gt;$demographics.get("introducerUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt;  &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1887,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1887,6 +1901,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2203,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229855EC-EB4F-4B19-9CD6-EAB90768723A}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2266,10 +2281,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -2277,8 +2292,8 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>456</v>
+      <c r="G2" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="H2" s="3">
         <v>10004</v>
@@ -2307,10 +2322,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -2318,7 +2333,7 @@
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>257</v>
       </c>
       <c r="H3" s="3">
@@ -2348,10 +2363,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -2359,8 +2374,8 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>387</v>
+      <c r="G4" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="H4" s="3">
         <v>10004</v>
@@ -2389,10 +2404,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -2400,8 +2415,8 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>448</v>
+      <c r="G5" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="H5" s="3">
         <v>10003</v>
@@ -2430,10 +2445,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -2441,8 +2456,8 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>396</v>
+      <c r="G6" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="H6" s="3">
         <v>10003</v>
@@ -2471,10 +2486,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -2483,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H7" s="3">
         <v>10003</v>
@@ -2512,10 +2527,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
@@ -2524,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H8" s="3">
         <v>10003</v>
@@ -2553,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -2564,8 +2579,8 @@
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>399</v>
+      <c r="G9" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="H9" s="3">
         <v>10003</v>
@@ -2594,10 +2609,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -2605,8 +2620,8 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>400</v>
+      <c r="G10" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="H10" s="3">
         <v>10003</v>
@@ -2635,10 +2650,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -2646,8 +2661,8 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>401</v>
+      <c r="G11" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="H11" s="3">
         <v>10003</v>
@@ -2676,10 +2691,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>14</v>
@@ -2687,8 +2702,8 @@
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>402</v>
+      <c r="G12" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="H12" s="3">
         <v>10003</v>
@@ -2717,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -2729,7 +2744,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H13" s="3">
         <v>10002</v>
@@ -2758,10 +2773,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
@@ -2799,10 +2814,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
@@ -2810,8 +2825,8 @@
       <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>404</v>
+      <c r="G15" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="H15" s="3">
         <v>10002</v>
@@ -2840,10 +2855,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>14</v>
@@ -2851,8 +2866,8 @@
       <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>405</v>
+      <c r="G16" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="H16" s="3">
         <v>10002</v>
@@ -2881,10 +2896,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>14</v>
@@ -2893,7 +2908,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H17" s="3">
         <v>10002</v>
@@ -2922,10 +2937,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>14</v>
@@ -2934,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H18" s="3">
         <v>10002</v>
@@ -2963,10 +2978,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -2975,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H19" s="3">
         <v>10002</v>
@@ -3004,10 +3019,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
@@ -3016,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H20" s="3">
         <v>10002</v>
@@ -3045,10 +3060,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>14</v>
@@ -3056,8 +3071,8 @@
       <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>407</v>
+      <c r="G21" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="H21" s="3">
         <v>10002</v>
@@ -3097,14 +3112,14 @@
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>408</v>
+      <c r="G22" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="H22" s="3">
         <v>10001</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>37</v>
@@ -3138,14 +3153,14 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>449</v>
+      <c r="G23" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="H23" s="3">
         <v>10001</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>39</v>
@@ -3180,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H24" s="3">
         <v>10001</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>41</v>
@@ -3227,7 +3242,7 @@
         <v>10001</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>42</v>
@@ -3261,14 +3276,14 @@
       <c r="F26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>410</v>
+      <c r="G26" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>10001</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>25</v>
@@ -3302,14 +3317,14 @@
       <c r="F27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>411</v>
+      <c r="G27" s="15" t="s">
+        <v>422</v>
       </c>
       <c r="H27" s="7">
         <v>10001</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>44</v>
@@ -3332,10 +3347,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -3343,14 +3358,14 @@
       <c r="F28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>287</v>
+      <c r="G28" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="H28" s="7">
         <v>10001</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>45</v>
@@ -3373,10 +3388,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>83</v>
@@ -3384,8 +3399,8 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>455</v>
+      <c r="G29" s="15" t="s">
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>10003</v>
@@ -3414,10 +3429,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -3425,8 +3440,8 @@
       <c r="F30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>412</v>
+      <c r="G30" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="H30" s="7">
         <v>10003</v>
@@ -3455,10 +3470,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
@@ -3466,8 +3481,8 @@
       <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>413</v>
+      <c r="G31" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="H31" s="7">
         <v>10003</v>
@@ -3496,10 +3511,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>14</v>
@@ -3507,8 +3522,8 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>414</v>
+      <c r="G32" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="H32" s="7">
         <v>10003</v>
@@ -3537,10 +3552,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -3548,8 +3563,8 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>415</v>
+      <c r="G33" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="H33" s="7">
         <v>10003</v>
@@ -3578,10 +3593,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>14</v>
@@ -3589,8 +3604,8 @@
       <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>416</v>
+      <c r="G34" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="H34" s="7">
         <v>10005</v>
@@ -3619,10 +3634,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
@@ -3630,8 +3645,8 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>417</v>
+      <c r="G35" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="H35" s="7">
         <v>10005</v>
@@ -3671,14 +3686,14 @@
       <c r="F36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>418</v>
+      <c r="G36" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="H36" s="7">
         <v>10001</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>28</v>
@@ -3712,14 +3727,14 @@
       <c r="F37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>378</v>
+      <c r="G37" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>10001</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>30</v>
@@ -3753,14 +3768,14 @@
       <c r="F38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>419</v>
+      <c r="G38" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="H38" s="3">
         <v>10001</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>31</v>
@@ -3794,8 +3809,8 @@
       <c r="F39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>420</v>
+      <c r="G39" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="H39" s="3">
         <v>10002</v>
@@ -3876,8 +3891,8 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>421</v>
+      <c r="G41" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="H41" s="3">
         <v>10002</v>
@@ -3917,8 +3932,8 @@
       <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>421</v>
+      <c r="G42" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="H42" s="3">
         <v>10004</v>
@@ -3999,8 +4014,8 @@
       <c r="F44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>421</v>
+      <c r="G44" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="H44" s="3">
         <v>10004</v>
@@ -4029,17 +4044,17 @@
         <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="9" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="H45" s="3">
         <v>10004</v>
@@ -4068,10 +4083,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>14</v>
@@ -4109,10 +4124,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>14</v>
@@ -4121,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="H47" s="3">
         <v>10004</v>
@@ -4159,14 +4174,14 @@
         <v>14</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="13" t="s">
-        <v>450</v>
+      <c r="G48" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="H48" s="3">
         <v>10001</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>47</v>
@@ -4189,10 +4204,10 @@
         <v>13</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>14</v>
@@ -4200,8 +4215,8 @@
       <c r="F49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>423</v>
+      <c r="G49" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="H49" s="3">
         <v>10005</v>
@@ -4230,10 +4245,10 @@
         <v>13</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>14</v>
@@ -4241,8 +4256,8 @@
       <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>423</v>
+      <c r="G50" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="H50" s="3">
         <v>10005</v>
@@ -4271,10 +4286,10 @@
         <v>13</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>14</v>
@@ -4282,8 +4297,8 @@
       <c r="F51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>424</v>
+      <c r="G51" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="H51" s="3">
         <v>10005</v>
@@ -4312,10 +4327,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>14</v>
@@ -4323,8 +4338,8 @@
       <c r="F52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>424</v>
+      <c r="G52" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="H52" s="3">
         <v>10005</v>
@@ -4353,10 +4368,10 @@
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>14</v>
@@ -4364,14 +4379,14 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>425</v>
+      <c r="G53" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="H53" s="3">
         <v>10001</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>48</v>
@@ -4405,8 +4420,8 @@
       <c r="F54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>426</v>
+      <c r="G54" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="H54" s="3">
         <v>10003</v>
@@ -4446,8 +4461,8 @@
       <c r="F55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>427</v>
+      <c r="G55" s="13" t="s">
+        <v>440</v>
       </c>
       <c r="H55" s="3">
         <v>10003</v>
@@ -4476,10 +4491,10 @@
         <v>13</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>14</v>
@@ -4487,8 +4502,8 @@
       <c r="F56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>454</v>
+      <c r="G56" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="H56" s="3">
         <v>10003</v>
@@ -4528,8 +4543,8 @@
       <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>428</v>
+      <c r="G57" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="H57" s="3">
         <v>10006</v>
@@ -4558,10 +4573,10 @@
         <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -4569,8 +4584,8 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>428</v>
+      <c r="G58" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="H58" s="3">
         <v>10006</v>
@@ -4599,10 +4614,10 @@
         <v>13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>14</v>
@@ -4640,10 +4655,10 @@
         <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>14</v>
@@ -4651,8 +4666,8 @@
       <c r="F60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>429</v>
+      <c r="G60" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="H60" s="3">
         <v>10006</v>
@@ -4681,10 +4696,10 @@
         <v>13</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -4693,7 +4708,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H61" s="3">
         <v>10006</v>
@@ -4722,10 +4737,10 @@
         <v>13</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>14</v>
@@ -4733,8 +4748,8 @@
       <c r="F62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>430</v>
+      <c r="G62" s="12" t="s">
+        <v>443</v>
       </c>
       <c r="H62" s="3">
         <v>10006</v>
@@ -4763,10 +4778,10 @@
         <v>13</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>14</v>
@@ -4775,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="H63" s="3">
         <v>10006</v>
@@ -4804,10 +4819,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>14</v>
@@ -4816,7 +4831,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H64" s="3">
         <v>10006</v>
@@ -4845,10 +4860,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>14</v>
@@ -4856,8 +4871,8 @@
       <c r="F65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>431</v>
+      <c r="G65" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="H65" s="3">
         <v>10006</v>
@@ -4886,10 +4901,10 @@
         <v>13</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>14</v>
@@ -4897,8 +4912,8 @@
       <c r="F66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>432</v>
+      <c r="G66" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="H66" s="3">
         <v>10006</v>
@@ -4927,10 +4942,10 @@
         <v>13</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>14</v>
@@ -4939,7 +4954,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H67" s="3">
         <v>10006</v>
@@ -4968,10 +4983,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>14</v>
@@ -4979,8 +4994,8 @@
       <c r="F68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>432</v>
+      <c r="G68" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="H68" s="3">
         <v>10006</v>
@@ -5009,10 +5024,10 @@
         <v>13</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>14</v>
@@ -5020,8 +5035,8 @@
       <c r="F69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>433</v>
+      <c r="G69" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="H69" s="3">
         <v>10006</v>
@@ -5050,10 +5065,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
@@ -5062,7 +5077,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H70" s="3">
         <v>10006</v>
@@ -5091,10 +5106,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>14</v>
@@ -5102,8 +5117,8 @@
       <c r="F71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>433</v>
+      <c r="G71" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="H71" s="3">
         <v>10006</v>
@@ -5132,10 +5147,10 @@
         <v>13</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>14</v>
@@ -5143,8 +5158,8 @@
       <c r="F72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>434</v>
+      <c r="G72" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="H72" s="3">
         <v>10006</v>
@@ -5173,10 +5188,10 @@
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
@@ -5185,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H73" s="3">
         <v>10006</v>
@@ -5214,10 +5229,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>14</v>
@@ -5225,8 +5240,8 @@
       <c r="F74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>434</v>
+      <c r="G74" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="H74" s="3">
         <v>10006</v>
@@ -5255,10 +5270,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>14</v>
@@ -5266,8 +5281,8 @@
       <c r="F75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>435</v>
+      <c r="G75" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="H75" s="3">
         <v>10006</v>
@@ -5296,10 +5311,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>14</v>
@@ -5307,8 +5322,8 @@
       <c r="F76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="12" t="s">
-        <v>308</v>
+      <c r="G76" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="H76" s="3">
         <v>10006</v>
@@ -5337,10 +5352,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>14</v>
@@ -5348,8 +5363,8 @@
       <c r="F77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>435</v>
+      <c r="G77" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="H77" s="3">
         <v>10006</v>
@@ -5378,10 +5393,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>14</v>
@@ -5389,8 +5404,8 @@
       <c r="F78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>436</v>
+      <c r="G78" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="H78" s="3">
         <v>10006</v>
@@ -5419,10 +5434,10 @@
         <v>13</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
@@ -5431,7 +5446,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H79" s="3">
         <v>10006</v>
@@ -5460,10 +5475,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>14</v>
@@ -5471,8 +5486,8 @@
       <c r="F80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>436</v>
+      <c r="G80" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="H80" s="3">
         <v>10006</v>
@@ -5501,10 +5516,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>14</v>
@@ -5512,8 +5527,8 @@
       <c r="F81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>437</v>
+      <c r="G81" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="H81" s="3">
         <v>10006</v>
@@ -5542,10 +5557,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>14</v>
@@ -5554,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H82" s="3">
         <v>10006</v>
@@ -5583,10 +5598,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>14</v>
@@ -5594,8 +5609,8 @@
       <c r="F83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>438</v>
+      <c r="G83" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="H83" s="3">
         <v>10006</v>
@@ -5624,10 +5639,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>14</v>
@@ -5635,8 +5650,8 @@
       <c r="F84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>439</v>
+      <c r="G84" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H84" s="3">
         <v>10006</v>
@@ -5665,10 +5680,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>14</v>
@@ -5677,7 +5692,7 @@
         <v>15</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H85" s="3">
         <v>10006</v>
@@ -5706,10 +5721,10 @@
         <v>13</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>14</v>
@@ -5717,8 +5732,8 @@
       <c r="F86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>439</v>
+      <c r="G86" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="H86" s="3">
         <v>10006</v>
@@ -5747,10 +5762,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>14</v>
@@ -5759,7 +5774,7 @@
         <v>15</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="H87" s="3">
         <v>10006</v>
@@ -5788,10 +5803,10 @@
         <v>13</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>14</v>
@@ -5799,8 +5814,8 @@
       <c r="F88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="8" t="s">
-        <v>371</v>
+      <c r="G88" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="H88" s="3">
         <v>10006</v>
@@ -5829,10 +5844,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>14</v>
@@ -5840,8 +5855,8 @@
       <c r="F89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="9" t="s">
-        <v>440</v>
+      <c r="G89" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="H89" s="3">
         <v>10006</v>
@@ -5870,10 +5885,10 @@
         <v>13</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>14</v>
@@ -5882,7 +5897,7 @@
         <v>15</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="H90" s="3">
         <v>10006</v>
@@ -5911,10 +5926,10 @@
         <v>13</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>14</v>
@@ -5923,7 +5938,7 @@
         <v>15</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H91" s="3">
         <v>10006</v>
@@ -5952,10 +5967,10 @@
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>14</v>
@@ -5963,8 +5978,8 @@
       <c r="F92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>442</v>
+      <c r="G92" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="H92" s="3">
         <v>10006</v>
@@ -5993,10 +6008,10 @@
         <v>13</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>14</v>
@@ -6004,8 +6019,8 @@
       <c r="F93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>443</v>
+      <c r="G93" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="H93" s="3">
         <v>10006</v>
@@ -6034,10 +6049,10 @@
         <v>13</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>14</v>
@@ -6046,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H94" s="3">
         <v>10006</v>
@@ -6075,10 +6090,10 @@
         <v>13</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>14</v>
@@ -6086,8 +6101,8 @@
       <c r="F95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>444</v>
+      <c r="G95" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="H95" s="3">
         <v>10006</v>
@@ -6116,10 +6131,10 @@
         <v>13</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>14</v>
@@ -6127,8 +6142,8 @@
       <c r="F96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>445</v>
+      <c r="G96" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="H96" s="3">
         <v>10006</v>
@@ -6157,10 +6172,10 @@
         <v>13</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
@@ -6169,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H97" s="3">
         <v>10006</v>
@@ -6198,10 +6213,10 @@
         <v>13</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>14</v>
@@ -6209,8 +6224,8 @@
       <c r="F98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>445</v>
+      <c r="G98" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="H98" s="3">
         <v>10006</v>
@@ -6239,10 +6254,10 @@
         <v>13</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
@@ -6250,8 +6265,8 @@
       <c r="F99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>446</v>
+      <c r="G99" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="H99" s="3">
         <v>10006</v>
@@ -6280,10 +6295,10 @@
         <v>13</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>14</v>
@@ -6292,7 +6307,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H100" s="3">
         <v>10006</v>
@@ -6321,10 +6336,10 @@
         <v>13</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>14</v>
@@ -6332,8 +6347,8 @@
       <c r="F101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>446</v>
+      <c r="G101" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="H101" s="3">
         <v>10006</v>
@@ -6362,10 +6377,10 @@
         <v>13</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>14</v>
@@ -6373,8 +6388,8 @@
       <c r="F102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>447</v>
+      <c r="G102" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="H102" s="3">
         <v>10006</v>
@@ -6403,10 +6418,10 @@
         <v>13</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>14</v>
@@ -6415,7 +6430,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H103" s="3">
         <v>10006</v>
@@ -6444,10 +6459,10 @@
         <v>13</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>14</v>
@@ -6456,7 +6471,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="H104" s="3">
         <v>10006</v>
@@ -6496,7 +6511,7 @@
       <c r="F105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="13" t="s">
         <v>228</v>
       </c>
       <c r="H105" s="3">
@@ -6537,7 +6552,7 @@
       <c r="F106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="13" t="s">
         <v>228</v>
       </c>
       <c r="H106" s="3">
@@ -7521,7 +7536,7 @@
       <c r="F130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G130" s="13" t="s">
         <v>208</v>
       </c>
       <c r="H130" s="3">
@@ -7849,8 +7864,8 @@
       <c r="F138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G138" s="14" t="s">
-        <v>284</v>
+      <c r="G138" s="13" t="s">
+        <v>460</v>
       </c>
       <c r="H138" s="3">
         <v>10002</v>
@@ -7890,8 +7905,8 @@
       <c r="F139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G139" s="14" t="s">
-        <v>285</v>
+      <c r="G139" s="13" t="s">
+        <v>461</v>
       </c>
       <c r="H139" s="3">
         <v>10002</v>
@@ -7931,7 +7946,7 @@
       <c r="F140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G140" s="13" t="s">
         <v>69</v>
       </c>
       <c r="H140" s="3">
@@ -7972,8 +7987,8 @@
       <c r="F141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G141" s="14" t="s">
-        <v>451</v>
+      <c r="G141" s="13" t="s">
+        <v>409</v>
       </c>
       <c r="H141" s="3">
         <v>10002</v>
@@ -8013,8 +8028,8 @@
       <c r="F142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="14" t="s">
-        <v>452</v>
+      <c r="G142" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="H142" s="3">
         <v>10003</v>
@@ -8054,8 +8069,8 @@
       <c r="F143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="15" t="s">
-        <v>453</v>
+      <c r="G143" s="14" t="s">
+        <v>411</v>
       </c>
       <c r="H143" s="3">
         <v>10003</v>
